--- a/Datos/libros/convert/xlsx/Francis Bacon - La nueva Atlántida_que.xlsx
+++ b/Datos/libros/convert/xlsx/Francis Bacon - La nueva Atlántida_que.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC54CC69-E775-4BE4-9EE9-22EF3E5D35B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{FC54CC69-E775-4BE4-9EE9-22EF3E5D35B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB2AC7C-DF94-4D65-87B2-C70E5935540A}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{C959F817-AB11-43DD-9CB8-E6B4B1C8D301}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="412">
   <si>
     <t>Francis Bacon de Verulam sutiyuq runa</t>
   </si>
@@ -359,19 +359,7 @@
     <t>Paytaq kutichirqan: “Ñawpaqmanta kay tapuwaspaqa, sonqoy qanpa sonqoykiman astawan k’askakun, chaymi rikuchin hanaq pacha qhapaq suyuta maskhasqaykita;</t>
   </si>
   <si>
-    <t>Qespichiqninchis hanaq pachaman wicharisqanmanta yaqa iskay chunka wata qhepamanmi Renfusa llaqtapi tiyaqkuna (islanchispa inti lloqsimuy ladonpi kaq llaqta) rikurqanku iskay kinsa legua karullapi (tutaqa phuyuyoq thakmi karqan) lamar-qochapi hatun k’anchay pilarta; columna otaq cilindroman rikchakuqmi karqa, lamar quchamanta hanaq pachaman wichariq; Patapiqa hatun k’anchariq cruzmi kasqa, pilarpa ejenmanta aswan k’anchariq, aswan k’anchariq._x000D_ Chhayna mana reqsisqa qhawariywan tupaspa llaqtaqa usqhaylla lamar-qocha patapi huñunakurqanku admirakunankupaq; chaymantataqmi chay admirakuypaq rikuyman asuykunankupaq achka uchuy botekunaman seqarurqaku._x000D_ Ichaqa pilarmanta yaqa soqta chunka yarda kachkaptinkum tarirurqaku mana ñawpaqman riyta atisqankuta, huk lawman puriyta atispankupas; runakunaqa botekunapin qhepakurqanku yuyaymanaq yuyaywan, teatropi hina, chay k’anchayta qhawaspa, hanaq pacha señal hina._x000D_ Pasasqa huknin botepi huknin aswan yachaysapa runanchis kasharqan, La Casa de Solomonmanta ", wasi otaq colegio, munasqa wawqeykuna, chaymi kay reinoq almanta ruwan; huk rato qhawarispa yuyaymanaspa, allinta qhawarispa, devotowan pilartapas cruztapas, kay yachaysapa runaqa uyanta urmaykurqan, chaymantataq, derechakuspa hatarispa makinkunata hanaq pachaman, kay hinata mañakurqan.</t>
-  </si>
-  <si>
-    <t>Wiraqocha, hanaq pachaq, kay pachaq Diosnin, khuyapayakuyniykiwanmi saqewarqanchis kamasqakunata, llank’ayniykita, pakasqa kaqkunatawan reqsinanchispaq; hinaspapas (runapaq atisqanman hina) divina milagrokunata, naturalezaq ruwayninkunata, artístico nisqakunata, tukuy imaymana llullakuqkunata, ilusiones nisqakunatapas t’aqananchispaq._x000D_ Kay llaqtaq ñawpaqenpin testifikani kay ratokunapi yuyaykusqanchisqa kasqanmanta dedoykita tariy, cheqaq milagrotaqmi._x000D_ Hinaspapas, libronchiskunapi yachasqanchis hina, milagrokunata ruwanki allin hinallataq hanaq pacha tukukuyman qhawarispa (imaraykuchus naturalezaq kamachikuyninkunaqa qanpa kamachikuyniykikuna, manataqmi chayta ruwankichu chaykunata t’ikraychis mana hatun razonraykuchu chayqa), huch’uyyaykukuspa mañakuykiku kay hatun señalta t’ikrayta atinaykipaq; chaytataqmi prometewaq hina, apachimuwaspayku.</t>
-  </si>
-  <si>
-    <t>Fraseninta tukuruspanmi musyarurqa boteqa mana harkakuspalla kuyuyta atisqanmanta, wakinñataqmi mana kuyurispalla qiparqaku; hinaspa kayqa asuykunanpaq permiso niyta munasqanmanta qhawarispan, boteta, ch’inlla remaspa, pilarman asuykuchirqan._x000D_ Ichaqa chayman asuykuqtinmi, pilarpas k’ancharishaq cruzpas - chinkapurqanku, p’akikuspa, nisunman, ch’askakunaq hawanman , chaypas pisi tiempollamantan chinkapurqan; manataqmi imapas rikusqachu, aswanpas huk huch’uy cedro cajacha otaq caja, ch’aki, manataqmi maqchisqachu unupi phawaykachashaspapas._x000D_ Ñawpaqninpi, aswan qayllanpi kaq, wiñarqan huk huch’uy verde palmera k’allma; chay yachaysapa runaqa chay cajata makinpi hap’ispa, respetowan kicharispa huk librota huk cartatawan ukhupi tarirqan, iskayninmi sumaq pergaminopi qelqasqa karqan, tela phatmakunapitaq rollochasqa karqan._x000D_ Chay libropin kasharqan Ñawpa Testamentopi, Mosoq Testamentopi llapa canónico librokuna, imaynan chaykunata chaskinkichis hina (yachanchismi Iglesiaykichis chaykunata chaskisqanta), hinallataq Apocalipsis; kallarqantaqmi huk librokunapas Mosoq Testamentopi, chay tiempopi manaraq qelqasqaña kashaqtinpas._x000D_ Chay cartapin kasharqan kay simikuna:_x000D_ Ñoqa Bartolomé, Ancha Hatun Diospa kamachin, Jesucristoq apostolninpas, huk angelmi anyawarqan, paymi rikhurimuwarqan huk k’ancharishaq rikuypi kay cajata lamar-qochaq olakunaman churanaypaq.</t>
-  </si>
-  <si>
-    <t>Chayraykun willani, sut’inchani ima, kay caja chayamuq runakunaqa, Diospa munayninwan, chayamusqan p’unchayllapin qespikuyta, thak kayta, saminchayta ima tarinqaku, Yayamanta, Señorninchis Jesucristomantawan.</t>
-  </si>
-  <si>
-    <t> Kay qelqakunawanmi, librowanpas, cartawanpas, apostolkunaq ruwasqanman rikch’akuq hatun milagro ruwakurqan: simikunaq ñawpaq qokuyninmanta._x000D_ Chay tiempopi kawsaq, kay pachapi, hebreokuna, persa runakuna, indiokuna ima, chaymantapas chay suyupi tiyaqkunamanqa, llapankun chay librota, cartatapas leeyta atirqanku, kikin siminkupi qelqasqa hina._x000D_ Chay hinapin, hinallataq arcawan otaq cajawan, kay hallp’aqa mana hunt’aq kaymanta qespichisqa karqan (as parte de la ñawpaq pachaqa unu hunt’aymanta qespichisqa karqan ) San Bartoloméq milagro hina apostol hina evangelización nisqawan.</t>
+    <t> Chayraykun willani, sut’inchani ima, kay caja chayamuq runakunaqa, Diospa munayninwan, chayamusqan p’unchayllapin qespikuyta, thak kayta, saminchayta ima tarinqaku, Yayamanta, Señorninchis Jesucristomantawan.</t>
   </si>
   <si>
     <t> Huk rato sayaykurqan, kay ratopin huk willakuq chayamuspa ripurqan.</t>
@@ -380,10 +368,10 @@
     <t> Chaymi chay huñunakuypi pasarqa.</t>
   </si>
   <si>
-    <t>Paqaristinmi chay kikin Gobernador yapamanta hamurqan, cena qhepallaman, hinaspan disculpakurqan, ñawpaq p’unchay aswan qonqaylla t’aqanakusqayta nispa, kunanmi ichaqa premiayta munawarqanku, compañianpas rimasqanpas kusichiwaqtinkutaq huk ratota ñoqaykuwan pasayta munarqan.</t>
-  </si>
-  <si>
-    <t> Kutichirqaykutaqmi gustasqaykumanta hinaspa anchata gustasqaykumanta, chaymi ñawpaqpi hinaspa hamuq tiempopi peligrokunata allin gastasqata qawarqaniku rimaqta uyarisqaykuraykulla; hinaspapas paywan huk hora pasasqaykuqa ñawpaq kawsayniykumanta hunt’a watakunamanta aswan chaniyoq kasqanpi iñisqaykumanta.</t>
+    <t> Paqaristinmi chay kikin Gobernador yapamanta hamurqan, cena qhepallaman, hinaspan disculpakurqan, ñawpaq p’unchay aswan qonqaylla t’aqanakusqayta nispa, kunanmi ichaqa premiayta munawarqanku, compañianpas rimasqanpas kusichiwaqtinkutaq huk ratota ñoqaykuwan pasayta munarqan.</t>
+  </si>
+  <si>
+    <t>Kutichirqaykutaqmi gustasqaykumanta hinaspa anchata gustasqaykumanta, chaymi ñawpaqpi hinaspa hamuq tiempopi peligrokunata allin gastasqata qawarqaniku rimaqta uyarisqaykuraykulla; hinaspapas paywan huk hora pasasqaykuqa ñawpaq kawsayniykumanta hunt’a watakunamanta aswan chaniyoq kasqanpi iñisqaykumanta.</t>
   </si>
   <si>
     <t> Asllata k’umuykurqan, tiyaykusqayku qhepamantaq qaparirqan: “Allinmi, kunanqa qanmantan tapukunki”, nispa.</t>
@@ -392,39 +380,36 @@
     <t> Pisi tiempolla samarisqayku qhepamanmi hukninku niwarqanku imapas kasqanmanta, iskayninku yachanaykupaq llakisqa kasqaykumanta, tapuyta manchakusqaykumantawan, manchakuspayku maskhanaykupaq.</t>
   </si>
   <si>
-    <t>Ichaqa chayta kallpachasqa sapan sumaq sonqo kasqanwan ñoqaykuwan (chay hinapin hunt’aq sonqo hunt’aq kamachinkuna kaspaykuqa manaña hawa llaqtayoq hinachu qhawarikurqayku) atrevikurqayku chay tapukuyta payman proponeyta; humildewanmi valekurqaniku chay tapukuy mana imapaq valeqpaq hapiptin pampachawananchikpaq, mana chaskiptinpas.</t>
-  </si>
-  <si>
-    <t> Willarqaykutaqmi ñawpaq rimasqankunata yuyaypi hap’isqaykumanta, kay islapi tarikusqaykuqa pisilla runakunaq reqsisqanmi karqan, chaywanpas kay pachapi yaqa llapan suyukunan paykunaq reqsisqan karqanku; kayta cheqaq kasqanmanta yachasqanchismanta, Europaq simikunata yachasqankurayku, organizacionnintapas, ruwayninkunatapas allinta reqsisqankurayku; hinaspapas, chaywanpas, Europapi kaqniyku (karu allpakuna tukuy ima tarisqa kaptinpas, kay qipa pachakunapi tukuy puriykuna ruwasqa kaptinpas) manam haykapipas kay isla kasqanmanta pisillatapas qawachirqanchikchu.</t>
-  </si>
-  <si>
-    <t>Kaytaqa admirakuypaqmi tarirqayku llapa suyukuna riqsinakusqankumantapacha, imaymana suyukunaman puriykunamanta; hinaspapas hawa llaqtata watukuq puriq runaqa, llaqtanpi qhepakuspa ñawpaq kaqpa willakuyninta uyariqmantaqa, aswan askhataña rikuspa yachan, chaywanpas iskaynin ruwaykunan suficiente kanku, huk gradollapi, iskaynin ladomanta reqsinakunankupaq.</t>
-  </si>
-  <si>
-    <t> Ichaqa kay islamanta rimaspaqa manan hayk’aqpas niwarqankuchu chaymanta mayqen barcopas Europaq qochankunaman chayamuqta rikusqa kasqanmanta; nitaq Antis Oriental nitaq Antis Occidentales nisqa costakunamanpas, nitaqmi mayqen barcopas kay islamanta kutimusqanmantapas.</t>
+    <t> Ichaqa chayta kallpachasqa sapan sumaq sonqo kasqanwan ñoqaykuwan (chay hinapin hunt’aq sonqo hunt’aq kamachinkuna kaspaykuqa manaña hawa llaqtayoq hinachu qhawarikurqayku) atrevikurqayku chay tapukuyta payman proponeyta; humildewanmi valekurqaniku chay tapukuy mana imapaq valeqpaq hapiptin pampachawananchikpaq, mana chaskiptinpas.</t>
+  </si>
+  <si>
+    <t>Willarqaykutaqmi ñawpaq rimasqankunata yuyaypi hap’isqaykumanta, kay islapi tarikusqaykuqa pisilla runakunaq reqsisqanmi karqan, chaywanpas kay pachapi yaqa llapan suyukunan paykunaq reqsisqan karqanku; kayta cheqaq kasqanmanta yachasqanchismanta, Europaq simikunata yachasqankurayku, organizacionnintapas, ruwayninkunatapas allinta reqsisqankurayku; hinaspapas, chaywanpas, Europapi kaqniyku (karu allpakuna tukuy ima tarisqa kaptinpas, kay qipa pachakunapi tukuy puriykuna ruwasqa kaptinpas) manam haykapipas kay isla kasqanmanta pisillatapas qawachirqanchikchu.</t>
+  </si>
+  <si>
+    <t> Kaytaqa admirakuypaqmi tarirqayku llapa suyukuna riqsinakusqankumantapacha, imaymana suyukunaman puriykunamanta; hinaspapas hawa llaqtata watukuq puriq runaqa, llaqtanpi qhepakuspa ñawpaq kaqpa willakuyninta uyariqmantaqa, aswan askhataña rikuspa yachan, chaywanpas iskaynin ruwaykunan suficiente kanku, huk gradollapi, iskaynin ladomanta reqsinakunankupaq.</t>
+  </si>
+  <si>
+    <t>Ichaqa kay islamanta rimaspaqa manan hayk’aqpas niwarqankuchu chaymanta mayqen barcopas Europaq qochankunaman chayamuqta rikusqa kasqanmanta; nitaq Antis Oriental nitaq Antis Occidentales nisqa costakunamanpas, nitaqmi mayqen barcopas kay islamanta kutimusqanmantapas.</t>
   </si>
   <si>
     <t> Hinaspapas chaywanpas admirakuypaq kaqmi mana kaychu, chay islapa (señornikipa nisqan hina) chayna hatun mamaquchapa pakasqa hatun kayninpi imayna kasqanmi chaypa causan kanman.</t>
   </si>
   <si>
-    <t>Ichaqa chhayna karu nacionkunaq rimayninkunata, libronkunata, asuntonkunatapas yachasqankun tapuwarqanku ima yuyaykunanchista, ñoqanchispaqqa rikch’akurqanmi Diospa atiyninkunaq, hukkunaq, pikunaqpas pakasqa, mana rikuy atina kawsaqkunapas imayna kasqankuman, propiedadninmanpas, ichaqa, , tukuy imapas paykunamanmi sut’ita rikuchikun.</t>
-  </si>
-  <si>
-    <t> Kay rimayta uyarispanmi Gobernadorqa sumaq sonqowan asirikuspa nirqa allintam pampachayta mañakurqaniku, tapukuyniykumanta, ima niwasqanrayku, kay allpaqa encantadorkunapa allpan kananpaq piensasqaykuman hina kasqanrayku, tukuy lawman espiritukunata kachaspa.. kutimunaykupaq huk suyukunamanta willakuykunata, willakuykunatapas.</t>
+    <t> Ichaqa chhayna karu nacionkunaq rimayninkunata, libronkunata, asuntonkunatapas yachasqankun tapuwarqanku ima yuyaykunanchista, ñoqanchispaqqa rikch’akurqanmi Diospa atiyninkunaq, hukkunaq, pikunaqpas pakasqa, mana rikuy atina kawsaqkunapas imayna kasqankuman, propiedadninmanpas, ichaqa, , tukuy imapas paykunamanmi sut’ita rikuchikun.</t>
+  </si>
+  <si>
+    <t>Kay rimayta uyarispanmi Gobernadorqa sumaq sonqowan asirikuspa nirqa allintam pampachayta mañakurqaniku, tapukuyniykumanta, ima niwasqanrayku, kay allpaqa encantadorkunapa allpan kananpaq piensasqaykuman hina kasqanrayku, tukuy lawman espiritukunata kachaspa.. kutimunaykupaq huk suyukunamanta willakuykunata, willakuykunatapas.</t>
   </si>
   <si>
     <t> Aswan huch’uyyaykukuspa, ichaqa entiendesqayku hina, kutichirqayku asikushasqanmanta yachasqaykumanta; kay islapiqa imapas mana rikuy atina kasqanmanta yuyaykusqaykumanta, ichaqa magiamanta aswan angel hina kasqanmanta.</t>
   </si>
   <si>
-    <t>Señorniyki cheqaqtapuni yachananpaq imachus manchachiwarqanku, iskayrayachiwarqanku kay tapukuyta ruwanaykupaq, ninayku karqan manan chhayna fantasía tapukuychu kasqanmanta, aswanpas yuyarisqaykuraykun ñawpaq rimaykunapi uyarisqaykumanta rimasqaykita kay allpapiqa hawa llaqtayuq runakunamanta pakasqa kamachikuykuna kasqanmanta.</t>
+    <t> Señorniyki cheqaqtapuni yachananpaq imachus manchachiwarqanku, iskayrayachiwarqanku kay tapukuyta ruwanaykupaq, ninayku karqan manan chhayna fantasía tapukuychu kasqanmanta, aswanpas yuyarisqaykuraykun ñawpaq rimaykunapi uyarisqaykumanta rimasqaykita kay allpapiqa hawa llaqtayuq runakunamanta pakasqa kamachikuykuna kasqanmanta.</t>
   </si>
   <si>
     <t> Chaytataq kutichirqan:</t>
   </si>
   <si>
-    <t> Yuyarisqaykiqa allinmi, kayraykum, willasqaykipiqa wakin detallekunata reservanay, chaykunataqa manam legalchu ñuqapaq qawachinaypaq, ichaqa willasqaywanqa, satisfacciónnikipaqmi suficiente kanqa. _x000D_ Yachanki (hinallataq ichapas mana iñiy atina hina kanqa qampaq) yaqa kimsa waranqa wata ñawpaqta, utaq aswan, pachantinpi barcokuna (aswantaqa karu puriykunamanta) kunanmanta aswan hatun kasqanmanta.</t>
-  </si>
-  <si>
     <t>Ama yuyaykuychu kay pachak iskay chunka watakunapi yapakusqanmanta mana yachasqayta; Allintan yachani, chaywanpas afirmani chaypacha kunanmanta aswan hatun kasqayta; ichapas arcpa ejemplon, Tiqsimuyuntinpi Millp’uq Paramanta pisi runakuna puchuq runakunata qespichiq, runakunaman unukunapi aventurakunankupaq confianzata qorqan; puntoqa kaymi cheqaq kasqan.</t>
   </si>
   <si>
@@ -443,9 +428,6 @@
     <t> Kaytaqa yaqallam yuyarinki, ichaqa achkatam yachanchik.</t>
   </si>
   <si>
-    <t>Chay pachaqa kay hallp’ataqa reqsirqankun, sapa kutilla riqku llapa suyukunaq barconkuna, barconkuna ima, chaykunatan ñawpaqta rimarqani._x000D_ Hinaspa, sapa kuti hina, huk suyukunamanta qharikuna mana marinero kaqkuna wakin kutipiqa paykunawan hamuqku; Persia runakuna, Caldea runakuna, árabe runakuna, yaqa llapa atiyniyoq, reqsisqa nacionkunamanta runakunan kaypi huñunakurqanku; kunan pachaqa kanmi ñoqanchis ukhupi paykunamanta uraykamuq huch’uy t’aqakuna, ayllukuna ima._x000D_ Hinaspa barconchiskunamanta rimaspaqa, askha viajekunata ruwarqanku iskayninku chay estrecho nisqaman, chaytan sutichanki Pilares de Hércules nisqaman, hinallataq huk cheqaskunamanpas, Océano Atlántico nisqaman, Mediterráneo lamar qochamanpas; rirqanku Pekín llaqtaman (huk llaqtata Cambaline nispa sutichanchis) hinallataq Quinzy llaqtaman, inti lloqsimuy lamar-qochakunapi, hinaspan chayarqanku inti lloqsimuy lado Tartary llaqtaq linderonkunaman._x000D_ Chaypachallapitaqmi, hinallataq huk miraymanta aswan pisi qhepaman, Hatun Atlantis nisqapi tiyaqkuna.</t>
-  </si>
-  <si>
     <t>Bueno, huknin hatun runaykipa (Platonpa Critias nisqapi) Neptunopa miraynin chaypi tiyasqankumanta willakuypas, willakuypas, yupaychana wasipa, palaciopa, llaqtapa hinaspa urqupa hatun kayninmanta kaptinpas; achka hatun purinapaq mayukunamanta (chaymi chay sitiota hinaspa yupaychana wasitapas cadena hina muyurirqa); imaymana saruykunawan runakuna chayman wicharisqanku, Scala coeli hina; Tukuy kaykunaqa harawi hinallataq fabuloso kaptinpas, chaywanpas, yaqa llapanmi chiqap, ñawpaq rimasqanchik suyu Atlantis, chaynallataq Perú suyupas, chaypacha Coya sutiyuq, Méxicopas, chaypacha Tyrabel sutiyuq, armankurayku atiyniyuq hinaspa hatun sunquyuq reinokuna kasqankurayku. , buquekuna, qhapaq kaypas: ancha atiyniyoqmi, huk kutin (otaq chunka watallapipas) Tyrambelpa runankuna iskay hatun puriykunata ruwarqanku Mediterráneo lamar-qochaman Atlántico nisqa lamar-qochata pasaspa; hinallataq Coyamanta islanchiskama Sur Lamar qochata pasaspa; Yaqachus hina chay kikin qelqaq wakin noticiakunata chaskirqan chay expedicionmanta, chay expedición Europaman rirqan huk Egipto sacerdotewan, paymantan cita.</t>
   </si>
   <si>
@@ -461,9 +443,6 @@
     <t> Kay islapa reynin, Altabin sutiyuq, yachaysapa runa, hatun maqanakuq, allinta yachaspa kikinpa kallpanta, awqankunapa kallpantapas, huk hinata maniobrarqan, pisi kallpakunawan, chayman chayaq tropakunata buquenkumanta t’aqarqan, hap’ispa hinaspa campamento.. hinaspa mana maqanakuspa entregakunankupaq hikutaspa; khuyapayakuyninpi kashaqtinkutaqmi juramentonkuwan kusisqa karqan, manaña hukmanta armakunata hap’inankupaq, hinaspa kacharichinankupaq.</t>
   </si>
   <si>
-    <t>Kay hatunchakuq puriykunamanta pisi tiempollamantan, Diospa vengakuynin paykunaman urmaykurqan._x000D_ Manaraq pachak watallapin Hatun Atlantis chinkachisqa karqan; manan hatun terremotowanchu, qelqaqniykiq nisqan hina (chay suyuqa pisillatan terremotoman hap’iq karqan), aswanpas huk extraordinario diluviowan unu hunt’aykusqanwan, chay p’unchaykunapi chay suyukunaq ununku aswan hatun mayukunamanta, aswan alto orqokunamantawan hamusqanrayku.elevated than any part of the Old World._x000D_ Cheqaq kaqmi, unu hunt’ayqa manan ukhuchu karqan, manan tawa chunka metro masraqchu chayarqan pampamanta, chaymi runakunata, uywakunatapas llapanpi thuñichirqan chaypas, chaywanpas wakin sallqa runakuna sach’a-sach’akunamanta atiparqanku ayqikunankupaq._x000D_ Pisqukunapas sachakunapa alto kallmankunaman pawaspankum qispichisqa karqaku._x000D_ Qharikunamanta rimaspaqa, achka sitiokunapi yakupa sayayninmanta aswan altopi tiyasqanku kaptinpas, ichaqa, yaku huntayqa hawallamantaña kaptinpas, unaypaqmi karqa unay tiempo chayraykun mana unupi chinkaq wayq’okunapi tiyaqkuna wañurqanku mana mikhuyniyoq kasqankurayku, huk necesario kaqkunamantawan._x000D_ Chhaynaqa, ama admirakuychischu América llaqtapi pisilla runakuna kasqankumanta, nitaq chaypi tiyaqkunaq mana allin ruwasqankumanta, mana yachayniyoq kasqankumantapas, paykuna hina wayna sipas hina qhawarina, waranqa wata sullk’a kay pachamanta, imaraykuchus askha tiempon pasarqan Universal Diluviowan kay extraordinario unu hunt’aywan.</t>
-  </si>
-  <si>
     <t>Urqukunapi saqisqa runakunapa wakcha kawsaqninkunaqa pisi pisimantam chay suyuta musuqmanta yaparurqaku, hinaspapas mana sasachakuspalla hinaspa sallqa runakuna kasqankuraykum (mana Noe hinachu hinaspa churinkuna hinachu, paykunam kay Pachapi hatun ayllu karqaku) manam atirqakuchu paypa ayllunman saqiyta posteridad alfabeto, arte utaq civilización nisqa; hinaspapas yachasqa kaspanku, chaynallataqmi urqunkupipas (chay suyukunapa sinchi chiri kasqanrayku) chay allpakunapi kasqanku tigrekunapa, osokunapa hinaspa suni chukchayuq cabrakunapa qaranwan pachakuspanku, wayqukunaman uraykuspa mana aguantay atina ruphayta tarispanku pikunachus chaypi kamachirqanku, manataq aswan llamp’u p’acha ruwayta yacharqankuchu, mana hark’asqalla q’ala riyman yachakurqanku, kunankamapas chhaynapin kashanku.</t>
   </si>
   <si>
@@ -473,13 +452,10 @@
     <t>Rikusqaykichikman hinaqa, kay hatun accidenteraykum, norteamericanokunawanqa manaña apanakurqaykuchu, paykunawanmi aswan achkata hukkunamantaqa, aswan kallpawan negociota ruwarqayku, aswan hichpallapi kasqaykurayku.</t>
   </si>
   <si>
-    <t>Huk pachakunapiqa sutillam kachkan qatiqnin pachakunapi (awqanakuykunarayku, utaq pachapa natural evolucionninrayku) tukuy hinastinpi puriyqa anchata pisiyasqanmanta: aswantaqa karu puriykunapi (huk chikanpiqa galerakuna, buquekuna chay lamar qochapa phiñakuynintaqa pisillatan aguantayta atirqan) manañan ruwasqachu karqan._x000D_ Chay hinapin, huk suyukunaq noqanchiswan rimanakuy atisqankuqa unayña tukupurqan, manachus qan hina mana reqsisqa accidente pasaqtinqa ._x000D_ atisqanchis rimanakuymanta kanman huk suyukunawan, willanaymi imarayku mana chay hinachu pasasqanmanta._x000D_ Confesaykimanmi, francamente rimaspa, botenchiskuna, atiyninchis, marinerokuna hinallataq pilotokuna, hinallataq tukuy ima arte de vela nisqaman perteneceqkunapas, paykunan kanku hina hayk’aqpas kasqankuman hina hatun; chayraykun willasqayki imaraykun llaqtanchispi qhepakurqayku, chaywanmi, qanpa satisfacciónniykipaq, aswan qayllallapi kanki hatun tapukuyniykiman._x000D_ Yaqa chunka isqonniyoq pachak wata ñawpaqtaraqmi huk kamachikuq kamachikurqan kay islapi, paypa yuyariyninmi, llapan ukhupi reykuna, aswan hatun gradopin yupaychanchis; manan yanqa creenciawanchu ruwanchis aswanpas divina instrumento hina qhawarispa, wañuq runaña karqan chaypas; Paypa sutinmi karqa Salomon, chaymi paytaqa llaqtanchikpa kamachikuyninta churaq nispa suticharqanchik.</t>
-  </si>
-  <si>
-    <t>Kay reyqa hatun sonqoyoqmi kasqa, mana wañuy atina allin kayta munakuq, tukuy sonqon munaq reinonta llaqtanta kusichiyta.</t>
-  </si>
-  <si>
-    <t> Kay allpaqa mana hawa llaqtakunap yanapayninwan kikinmanta atikuq kananpaq qhawarisqanrayku, 5.600 millas diámetro nisqayuq, yaqa llapanpiqa pisilla puquyniyuq kasqanmanta; hinallataq tarispa, challwakuywan, qucha patapi puriywan ima, puriyqa anchata kallpachasqa kanman, hinallataq wakin huch’uy islakunaman apachiywan, chay islakunaqa manan karuchu noqanchismanta, hinallataq kay Estadoq coronanwan, kamachikuyninkunawan ima; teniendo en cuenta el feliz y floreciente estado en que la isla se hallaba entonces, y que en todo caso podría empeorar pero diñcilmente mejorar, aunque personalmente nada deseaba, dadas sus nobles y heroicas intenciones, quiso perpetuar la situación que tan firmemente había establecido en su hayka pacha.</t>
+    <t> Kay reyqa hatun sonqoyoqmi kasqa, mana wañuy atina allin kayta munakuq, tukuy sonqon munaq reinonta llaqtanta kusichiyta.</t>
+  </si>
+  <si>
+    <t>Kay allpaqa mana hawa llaqtakunap yanapayninwan kikinmanta atikuq kananpaq qhawarisqanrayku, 5.600 millas diámetro nisqayuq, yaqa llapanpiqa pisilla puquyniyuq kasqanmanta; hinallataq tarispa, challwakuywan, qucha patapi puriywan ima, puriyqa anchata kallpachasqa kanman, hinallataq wakin huch’uy islakunaman apachiywan, chay islakunaqa manan karuchu noqanchismanta, hinallataq kay Estadoq coronanwan, kamachikuyninkunawan ima; teniendo en cuenta el feliz y floreciente estado en que la isla se hallaba entonces, y que en todo caso podría empeorar pero diñcilmente mejorar, aunque personalmente nada deseaba, dadas sus nobles y heroicas intenciones, quiso perpetuar la situación que tan firmemente había establecido en su hayka pacha.</t>
   </si>
   <si>
     <t>Chay raykun, huk kamachikuy fundamentalkuna promulgasqan ukhupiqa, hawa llaqtayoq runakunaq haykuyninta hark’aq, chay tiempokunapi (América nacionpi calamidad qhepamanña karqan chaypas) sapa kutilla haykuymi karqan; chaytaqa ruwarqan mosoq kaqkunata, costumbrekunaq chaqrusqa kayninta manchakuspan.</t>
@@ -503,9 +479,6 @@
     <t> Hinaspapas nillarqantaqmi:</t>
   </si>
   <si>
-    <t>Hinallataqmi chay reyqa runa kayta, yuyaywan hukllachakunanta munaspa, hinallataq yuyaykuspa, hawa llaqtayoq runakunata kaypi mana munasqankupi wisq’ayqa runaq contranpi hucha kasqanmanta, hinallataq prudencia kasqanmanta kutimuspa kay Estadota tarisqankuta rikuchinankupaq, chaymi kay ruwaykunata ruwarqan: kamachirqan chay llapa hawa llaqtayuq runakuna allpaman chayanankupaq saqisqa runakunaqa munasqankupi ripunankupaq; hinallataq qhepakuyta munaqkunapas allin kawsayniyoq kasqankuta, Estadoq qolqenwan kawsanankupaq imakunatapas qosqa kasqankuta._x000D_ Hamuq pachata ancha hatunta qhawarirqan, chaymi hark’aymanta pacha askha watakunapi pasarqan mana yuyarinichu mayqin buquepas kutimusqanmanta, chunka kimsayuq runakunallamanta, hukniray pachakunapi, kutimuyta aswan allinpaq hapiqkuna._x000D_ Manam yachanichu kutimuqkuna ima ninankuta._x000D_ Creenanchikmi mayman chayasqankupi willakusqankuqa yanqallapaq hapisqa kasqanmanta musquy._x000D_ Kaymanta hawa llaqtakunaman puriy atisqaykumanta rimaspaqa, kamachikuqniykuqa allinpaqmi hapirqa chaykunata limitayta._x000D_ Chinapiqa manam chaynachu, China runakunaqa may munasqankupi utaq maypi atisqankupi velasqankurayku; Kaymi qawachin hawa llaqtayuq runakuna haykunankupaq kamachikuynikichikqa pusillanimidadpa hinaspa manchakuypa rurun kasqanmanta._x000D_ Kay harkakuyninchikqa huklla excepción nisqayuqmi, chaymi admirable: aprovechay allin kaqkunata hawa llaqtayuqkunawan rimanakuymanta hinaspa mana dañota ruway._x000D_ Hinaspa kunan ñuqa chayta rikuchisunkichis; ichaqa kaypin huk huch’uy digresionta ruwasaq, chaytaqa pisi tiempollamantan pertinenteta tarinkichis._x000D_ Yachankichismi, munasqa amigoykuna, chay reypa llapa allin ruwasqankunamanta hukninmi aswan allin karqan.</t>
-  </si>
-  <si>
     <t>Chayqa karqan huk ordenpa otaq sociedadpa teqsin, institucionnin, chaytan sutichanchis Salomonpa Wasin nispa; Chayqa karqan Pachamamapi ruwasqa aswan allin teqsi, kay qhapaq suyupa k’anchayninpas.</t>
   </si>
   <si>
@@ -527,28 +500,25 @@
     <t>Hinaspapas allintan kay yuyayniyoq kani, ñawpaq qelqakunapi kay ordenta otaq sociedadta wakin kutipiqa Salomonpa Wasin nispa sutichasqankuwan, wakin kutipitaq Soqta P’unchay Llank’ay Colegio nispa; chaymantan horqoni, allin reyninchisqa hebreo runakunamantan yacharqan, Diosqa soqta p’unchayllapin kay pachata, llapan chaypi kaqkunatawan kamarqan, chayraykutaqmi kay wasita hatarichispa, tukuy imaq cheqaq kayninta t’aqwirinanpaq (chaytan Dios munanman aswan hatun gloriayoq, chaykunata ruwaq hina, runakunaq aswan hatun ruruntapas utilizasqankupi) kay iskay kaq sutitapas churarqan.</t>
   </si>
   <si>
-    <t>Ichaqa kutisun negocioman._x000D_ Rey llaqtanta hark’aqtin jurisdiccional yakunmanta hawapi barcopi purinanta, chaywanpas kay excepciónta ruwarqan: sapa chunka iskayniyoq watamanta iskay barcokuna reinomanta lloqsirqanku askha viajekunata ruwanankupaq, chaykunapitaq a comisión, Salomonpa Wasinpi kimsa miembronkuna utaq wawqinkuna, chaynapi watukusqanku suyukunapa imayna kasqanmanta willanankupaq; aswantaqa tukuy pachantinpi ciencias, artes, fabricaciones, inventos nisqakuna; hinallataq, apamuwayku librokunata, instrumentokunata, modelokunata tukuy imaymana kaqkunamanta; Paymi arreglasqa barcokuna wawqekunata uraykachispa kutimunankupaq, hinallataq hawa llaqtakunapi qhepanankupaq mosoq mision chayamunankama._x000D_ Kay barcokunaqa cargayoqmi karqanku mikhuykunawan, hinallataqmi askha qoritapas aparqanku, chhaynapi chay comisión necesario kaqkunata rantinanpaq, premiananpaqtaq runakunaman, pikunachus , paypa yuyaykusqanman hinaqa, merecerqanmi._x000D_ Kunanqa, manan willayta atiymanchu imaynatas mana tarinchischu marinerokunaq aterrizajenta, imaynatas huk tiempota allpapi tiyanku huk nacionalidadwan p’achasqa, ima cheqaskunatan akllasqa karqan apanankupaq hawa kay puriykunata, hinaspa may suyukunapi proyectasqa kanku chay mosoq misionkunaq nombramientonkuna, hinallataq circunstanciakuna tukuy kaykunata muyuriq; Manan niyta atiymanchu, maytaña munaspapas._x000D_ Rikusqaykiman hinaqa, qhatuytan waqaychanchis, manan qoriwanchu, qolqewanchu nitaq alhajakunawanchu, nitaq sedakunapichu, q'apaykunawanchu nitaq chayman rikch'akuq qhatuykunapichu, aswanpas Diospa ñawpaq kamasqankunapin, chaytaq k’anchay karqan: k’anchayniyoq kayta munanchis, nisunman, kay pachantinpi llapa cheqaskunapi tarikusqanmanta.</t>
-  </si>
-  <si>
-    <t>Tukuruptinñataqmi upallalla karqa, chaynam llapallanchik kachkarqanchik; admirakurqaykutaqmi chhayna admirakuypaq noticiakunata uyarisqaykumanta.</t>
-  </si>
-  <si>
-    <t> Imatapas niyta munasqaykutapas qhawarispan, ichaqa manaraqmi yacharqaykuchu imata, sumaq sonqowan rimayta cambiarqan, imaymana tapuykunatataq tapuwarqanku purisqaykumanta, maymanchus rinaykumantawan, tukupaypitaq yuyaychawarqanku ñoqayku kikiykupi yuyaykunaykupaq, hayk’a tiempo qhepakusqaykumanta Estadomanta mañakuyta yuyaykusharqanku, manataqmi mañakuyniykupichu limitakunayku, paymi qhawarinman munasqaykuman hina tiempota qowananchista.</t>
+    <t> Tukuruptinñataqmi upallalla karqa, chaynam llapallanchik kachkarqanchik; admirakurqaykutaqmi chhayna admirakuypaq noticiakunata uyarisqaykumanta.</t>
+  </si>
+  <si>
+    <t>Imatapas niyta munasqaykutapas qhawarispan, ichaqa manaraqmi yacharqaykuchu imata, sumaq sonqowan rimayta cambiarqan, imaymana tapuykunatataq tapuwarqanku purisqaykumanta, maymanchus rinaykumantawan, tukupaypitaq yuyaychawarqanku ñoqayku kikiykupi yuyaykunaykupaq, hayk’a tiempo qhepakusqaykumanta Estadomanta mañakuyta yuyaykusharqanku, manataqmi mañakuyniykupichu limitakunayku, paymi qhawarinman munasqaykuman hina tiempota qowananchista.</t>
   </si>
   <si>
     <t> Chaymantataq llapayku hatarirqayku, p’achanpa kantunkunata much’ayta munarqayku, ichaqa hark’akuspa ripurqan.</t>
   </si>
   <si>
-    <t>Ichaqa runayku yacharuspanku Estadoqa condicionkunata qoq hawa llaqtayoq runakunaman, paykunan decidiqku chay islapi qhepakunankupaq, chaymi askha sasachakuypi tarikurqayku wakinninkuta barcota cuidanankupaq, manataqmi chay ratolla Gobernadorman presentakunankupaq condicionkunata mañakuy; achka llamkaywanmi chaymanta karunchakurqayku, mayqin partidota adoptanaykupaq rimanakunaykukama.</t>
-  </si>
-  <si>
-    <t> Librepaqmi qhawarikurqayku mana sinchi chinkachiy peligro kasqanmanta rikuspa, chaymantapachan aswan kusikuywan kawsarqayku, calleman lloqsispayku llaqtapi, qaylla llaqtakunapipas tukuy ima visitanapaq hina kaqta rikuspayku, chay limitekuna ukhupi; Askha importante runakunawanmi huñunakurqayku, paykunapin tarirqayku sumaq sonqo kasqankuta, chaymi rikch’akurqan huk llaqtayoq runakunata chaskiyninkupi hina.</t>
+    <t> Ichaqa runayku yacharuspanku Estadoqa condicionkunata qoq hawa llaqtayoq runakunaman, paykunan decidiqku chay islapi qhepakunankupaq, chaymi askha sasachakuypi tarikurqayku wakinninkuta barcota cuidanankupaq, manataqmi chay ratolla Gobernadorman presentakunankupaq condicionkunata mañakuy; achka llamkaywanmi chaymanta karunchakurqayku, mayqin partidota adoptanaykupaq rimanakunaykukama.</t>
+  </si>
+  <si>
+    <t>Librepaqmi qhawarikurqayku mana sinchi chinkachiy peligro kasqanmanta rikuspa, chaymantapachan aswan kusikuywan kawsarqayku, calleman lloqsispayku llaqtapi, qaylla llaqtakunapipas tukuy ima visitanapaq hina kaqta rikuspayku, chay limitekuna ukhupi; Askha importante runakunawanmi huñunakurqayku, paykunapin tarirqayku sumaq sonqo kasqankuta, chaymi rikch’akurqan huk llaqtayoq runakunata chaskiyninkupi hina.</t>
   </si>
   <si>
     <t> Hinaspa kaymi suficiente karqan qonqawananchispaq maytachus payqa aswan munasqa karqan llaqtanchiskunapi.</t>
   </si>
   <si>
-    <t>Sapa kutim tarirqaniku qawanapaq hina otaq tupachinapaq hina kaqkunata.</t>
+    <t> Sapa kutim tarirqaniku qawanapaq hina otaq tupachinapaq hina kaqkunata.</t>
   </si>
   <si>
     <t> Mana iskayrayaspa, kay pachapi runa qawananpaq hina espejo kanman chayqa, kaymi chay suyu kanman.</t>
@@ -560,7 +530,7 @@
     <t> Chayqa kaykunamantam ruwasqa kachkan.</t>
   </si>
   <si>
-    <t> Mayqin qharipas kinsa chunka mirayninta kawsashaqta, kinsa watamanta aswan kuraq rikuyta atiqqa, Estadoq qolqenwanmi fiestata ruwayta atin.</t>
+    <t>Mayqin qharipas kinsa chunka mirayninta kawsashaqta, kinsa watamanta aswan kuraq rikuyta atiqqa, Estadoq qolqenwanmi fiestata ruwayta atin.</t>
   </si>
   <si>
     <t> Ayllupa taytan, paymi Tirsán sutichasqa, iskay p’unchaw raymi kachkaptin, kimsa amistadninkunata apan, chaykunatam gustan ajllayta, chaynallataqmi chay fiesta ruwakusqan llaqtapa utaq maypi kamachiqninpas pusaq; Hinallataqmi citasqa kanku, chaynapi iskaynin qari warmi ayllupi llapallan runakuna chayman hamunankupaq.</t>
@@ -569,7 +539,7 @@
     <t> Iskay p’unchaw ñawpaqtaraqmi Tirsan ayllupi allin kayninmanta rimanakuyta ruwanku.</t>
   </si>
   <si>
-    <t>Chaypin allichakun ch’aqwaykuna otaq ch’aqwaykuna, chaykunan kanman miembrokunaq chawpinpi.</t>
+    <t> Chaypin allichakun ch’aqwaykuna otaq ch’aqwaykuna, chaykunan kanman miembrokunaq chawpinpi.</t>
   </si>
   <si>
     <t> Sichus familiamanta mayqenpas mana allinpi tarikun chayqa, kallpachakunkun yanapanankupaq otaq allichanankupaq.</t>
@@ -581,7 +551,7 @@
     <t> Normas nisqakunan qokun casarakuykunamanta, ayllukunaq hamuq tiemponmantawan, huk willakuykunawan kamachikuykunawan kuska.</t>
   </si>
   <si>
-    <t> Kamachiqmi tukukuypi yanapan, llaqta kamachiyninwan, Tirsánpa kamachikuyninkunata, kamachikuyninkunata huntachinanpaq, mana kasukuptinkuqa; ichaqa, pachamamapa kamachikuyninkunata anchata yupaychasqankurayku hinaspa kasukusqankuraykum, kay tupuyqa pisillapi necesario.</t>
+    <t>Kamachiqmi tukukuypi yanapan, llaqta kamachiyninwan, Tirsánpa kamachikuyninkunata, kamachikuyninkunata huntachinanpaq, mana kasukuptinkuqa; ichaqa, pachamamapa kamachikuyninkunata anchata yupaychasqankurayku hinaspa kasukusqankuraykum, kay tupuyqa pisillapi necesario.</t>
   </si>
   <si>
     <t> Tirsan runaqa huknin churinta akllan paywan wasipi tiyananpaq; Chaymantapacham Uvas Sachapa Churin sutiwan riqsisqa.</t>
@@ -593,28 +563,28 @@
     <t> Chay raymi p’unchawpiqa, tayta utaq Tirsán, divina serviciota tukuspa, jatun cuartoman yaykun maypichus raymichakun; kay cuartoqa tukukuyninpim huk plataformayuq.</t>
   </si>
   <si>
-    <t>perqaman k’askanasqa, plataforma chawpipi, paypaq huk silla, ñawpaqninpi alfombrayuq, mesayuq ima.</t>
+    <t> perqaman k’askanasqa, plataforma chawpipi, paypaq huk silla, ñawpaqninpi alfombrayuq, mesayuq ima.</t>
   </si>
   <si>
     <t> Silla hawapiqa hiedramanta ruwasqa muyu utaq oval qata kachkan, hiedra ñuqanchikmanta aswan yuraq, yuraq álamo raphikuna hina ichaqa aswan k’anchariq; chiri timpuntinmi verdella qipan.</t>
   </si>
   <si>
-    <t> Chay qataqa admirakuypaqmi adornasqa kachkan qullqiwan hinaspa sedawan imaymana colorniyuq, warkusqa hinaspa hiedra nisqapi chaqrusqa; Ayllupa huknin warmi churinpa rurasqan llamkaymi; Patachanpiqa sumaq sedamanta qullqimanta llikawanmi qatasqa kachkan.</t>
+    <t>Chay qataqa admirakuypaqmi adornasqa kachkan qullqiwan hinaspa sedawan imaymana colorniyuq, warkusqa hinaspa hiedra nisqapi chaqrusqa; Ayllupa huknin warmi churinpa rurasqan llamkaymi; Patachanpiqa sumaq sedamanta qullqimanta llikawanmi qatasqa kachkan.</t>
   </si>
   <si>
     <t> Ichaqa chay marcoqa cheqaq hiedramantan ruwasqa kashan; huk kuti uraykachisqaña kaptin, ayllu masikuna huk k’allma utaq raphita waqaychayta munanku.</t>
   </si>
   <si>
-    <t>Tirsanqa llapa mirayninwan utaq ayllunwanmi rikurin, qarikuna ñawpaqninpi, warmikunataq qatiqninpi; sichus llapanku uraykamusqanku mama kawsan chayqa, chaymantaqa tiyanapa paña ladonpin, huk alto pisopi, kan huk apartamento, sapan punkuyoq, vidrio kuchusqa ventanayoq, qoriwan azulwan pusasqa, maymantan tiyashan, pakasqa tukuy qhawariykunata.</t>
+    <t> Tirsanqa llapa mirayninwan utaq ayllunwanmi rikurin, qarikuna ñawpaqninpi, warmikunataq qatiqninpi; sichus llapanku uraykamusqanku mama kawsan chayqa, chaymantaqa tiyanapa paña ladonpin, huk alto pisopi, kan huk apartamento, sapan punkuyoq, vidrio kuchusqa ventanayoq, qoriwan azulwan pusasqa, maymantan tiyashan, pakasqa tukuy qhawariykunata.</t>
   </si>
   <si>
     <t> Tirsán yaykuptinqa tiyanapi tiyaykun; llapa mirayninkunatan perqa patapi churanku, qhepanpipas, plataformaq ladonkunapipas, sayaqlla qhepanku, edadninkuman hina, qhari warmi kayninkumantaña mana qhawarispa.</t>
   </si>
   <si>
-    <t> Huk kuti tiyaykusqaña, cuarto hunt’a runakunawan ichaqa mana ima ch’aqwayniyoq, huk samay qhepata huk Taratán (chayqa huk heraldo niy hina) haykun huknin puntamanta cuartoq huknin puntanmanta huk wayna sapa ladonpi, huknin hukninmi apakun k’ancharishaq q’ello pergaminomanta qelqa k’uyuta, huknintaq qorimanta saphiyoq uvasniyoq racimota.</t>
-  </si>
-  <si>
-    <t>Heraldowan wawakunawanmi aqua-verde satinmanta p’achawan churakunku; willakuqpa kaqninqa quri rayayuqmi, chupayuqmi.</t>
+    <t>Huk kuti tiyaykusqaña, cuarto hunt’a runakunawan ichaqa mana ima ch’aqwayniyoq, huk samay qhepata huk Taratán (chayqa huk heraldo niy hina) haykun huknin puntamanta cuartoq huknin puntanmanta huk wayna sapa ladonpi, huknin hukninmi apakun k’ancharishaq q’ello pergaminomanta qelqa k’uyuta, huknintaq qorimanta saphiyoq uvasniyoq racimota.</t>
+  </si>
+  <si>
+    <t> Heraldowan wawakunawanmi aqua-verde satinmanta p’achawan churakunku; willakuqpa kaqninqa quri rayayuqmi, chupayuqmi.</t>
   </si>
   <si>
     <t> Chaymantataq willakuq runaqa kinsa kutita k’umuykukuspa otaq k’umuykukuspa plataformaman asuykuspa chaypi, ñawpaqtaqa, k’uyuta makinpi hap’in.</t>
@@ -623,7 +593,7 @@
     <t> Kay rolloqa carta real de privilegio nisqa, chaypin kashan alquilermanta qolqe qoy, askha privilegiokuna, franquiciakuna, familiaq taytanman qosqa títulos honorariokuna ima.</t>
   </si>
   <si>
-    <t> Sapa kutinmi dedicasqa, dirigisqa ima: "Aswanman, munasqa amigonchisman, manukuqninchismanpas", kay casollapaqmi allin titulo, reyqa manan hayk'aqpas pimanpas manuchu kasqanmanta ninku, aswanpas kamachisqan runakunaq mast'arikuyninmanta .</t>
+    <t>Sapa kutinmi dedicasqa, dirigisqa ima: "Aswanman, munasqa amigonchisman, manukuqninchismanpas", kay casollapaqmi allin titulo, reyqa manan hayk'aqpas pimanpas manuchu kasqanmanta ninku, aswanpas kamachisqan runakunaq mast'arikuyninmanta .</t>
   </si>
   <si>
     <t> Reypa cartanpi imprimisqa selloqa reypa rikch’aynintan representan, qoriwan grabasqa otaq moldeasqa; chay cartakuna derecho hina qosqaña kanku chaypas, chaywanpas familiaq hayk’a kayninman hina, allin qhawarisqa kayninman hinan t’aqasqa kanku.</t>
@@ -632,7 +602,7 @@
     <t> Willakuq runaqa chay cartata kallpawan ñawinchan, ñawinchaspataq taytanpas Tirsanpas sayasqalla qhepan.</t>
   </si>
   <si>
-    <t>iskay akllasqa churinkunawan yanapachikuspa.awpaqtaqa paywan.</t>
+    <t> iskay akllasqa churinkunawan yanapachikuspa.awpaqtaqa paywan.</t>
   </si>
   <si>
     <t> Heraldoqa plataformaman seqaspan cartata qon, chaypi kaq llapa runakunan chaymanta rimasqankupi huk aclamacionta hamun, chaymi hamun nin: “Kusisqa Bensalem llaqta runakuna”, nispa.</t>
@@ -641,7 +611,7 @@
     <t> Chaymantataq willakuq runaqa makinman hap’in, huknin waynamanta, qori uvas t’aqata.</t>
   </si>
   <si>
-    <t> Kaykunaqa sumaq esmalteyuqmi; ayllupi qharikuna aswan achka tarikuptinqa, uvaskunaqa morado esmaltado, hawanpitaq uchuy inti chinkaykuy; aswan achka warmikuna kaptinqa, chaymantaqa verde-q’illu esmalteyuqmi, hawanpitaq killa killayuq.</t>
+    <t>Kaykunaqa sumaq esmalteyuqmi; ayllupi qharikuna aswan achka tarikuptinqa, uvaskunaqa morado esmaltado, hawanpitaq uchuy inti chinkaykuy; aswan achka warmikuna kaptinqa, chaymantaqa verde-q’illu esmalteyuqmi, hawanpitaq killa killayuq.</t>
   </si>
   <si>
     <t> Ayllumanta miraykuna hina achka uvaskunam kan.</t>
@@ -650,22 +620,22 @@
     <t> Willakuq runapas kay quri rakhuta Tirsanman qun, paytaq kutinpi qun chay wasipi paywan kuska purinanpaq akllasqa churinman; chaytaqa taytanmanraqmi hap’in, chay qhepallaman runakunaq qayllanpi rikhurimuqtin; chayraykum Uvas Sachapa Churin nispa sutichanku.</t>
   </si>
   <si>
-    <t>Chay ceremonia tukusqaña kaptinqa, tayta utaq Tirsán jubilakun, chaymanta pisi pachamanta kutimun mikhuq, sapallan qata urapi tiyaspa, ñawpaq hina; manan mayqen mirayninpas paywanqa tiyanchu, ima dignidadniyoqña otaq ima rangoyoqña kaqtinpas, ichaqa Salomonpa Wasinmanta kaqtinqa.</t>
-  </si>
-  <si>
-    <t> Paytaqa kikin churinkunan servinku, paykunan ñawpaqenpi qonqorikunku, warmikunataq ladonpi sayashanku, perqaman k’umuykuspa.</t>
-  </si>
-  <si>
-    <t>Chay qatapa ladonkunapin invitasqakunapaq mesakuna kashan, chaykunatan ancha sumaq sonqowan servinku; mikhusqa qhepaman (aswan importante raymikunapiqa manan hayk’aqpas mikhuyqa huk hora kuskanmanta aswan unaychu) huk taki takikun, chaymi hukkunamanta hukniray, chayta ruwaqpa inventivo kayninman hina (allin harawiqniyoq kasqankurayku); takiq temanqa sapa kutillanmi Adanpa, Noepa, Abrahampa alabaynin; kayqa, ñawpaq iskay kay pachata hunt’asqankurayku, kinsa kaqtaq kikin hunt’aq kaypa taytan kasqanrayku; tukukuypiqa, sapa kutinmi gracias qokun Qespichiqninchis nacesqanmanta, paypa nacesqanwanmi llapa runakunaq nacesqanku ch’uyanchasqa karqan.</t>
+    <t> Chay ceremonia tukusqaña kaptinqa, tayta utaq Tirsán jubilakun, chaymanta pisi pachamanta kutimun mikhuq, sapallan qata urapi tiyaspa, ñawpaq hina; manan mayqen mirayninpas paywanqa tiyanchu, ima dignidadniyoqña otaq ima rangoyoqña kaqtinpas, ichaqa Salomonpa Wasinmanta kaqtinqa.</t>
+  </si>
+  <si>
+    <t>Paytaqa kikin churinkunan servinku, paykunan ñawpaqenpi qonqorikunku, warmikunataq ladonpi sayashanku, perqaman k’umuykuspa.</t>
+  </si>
+  <si>
+    <t> Chay qatapa ladonkunapin invitasqakunapaq mesakuna kashan, chaykunatan ancha sumaq sonqowan servinku; mikhusqa qhepaman (aswan importante raymikunapiqa manan hayk’aqpas mikhuyqa huk hora kuskanmanta aswan unaychu) huk taki takikun, chaymi hukkunamanta hukniray, chayta ruwaqpa inventivo kayninman hina (allin harawiqniyoq kasqankurayku); takiq temanqa sapa kutillanmi Adanpa, Noepa, Abrahampa alabaynin; kayqa, ñawpaq iskay kay pachata hunt’asqankurayku, kinsa kaqtaq kikin hunt’aq kaypa taytan kasqanrayku; tukukuypiqa, sapa kutinmi gracias qokun Qespichiqninchis nacesqanmanta, paypa nacesqanwanmi llapa runakunaq nacesqanku ch’uyanchasqa karqan.</t>
   </si>
   <si>
     <t> Mantelkunata hoqarispa, Tirsanqa yapamanta jubilakun; mañakusqan cheqasman sapallan mañakuykunata ruwaspataq kinsa kutita kutimun qallariypi hina muyuriqninpi llapa mirayninkunata saminchananpaq.</t>
   </si>
   <si>
-    <t> Chaymantataq hukmanta hukmanta waqyan, sutinkumanta, yuyaykusqanman hina ima, mayninpitaq edadninkuta kutichispa.</t>
-  </si>
-  <si>
-    <t>Chay waqyasqa runa (mesaqa ñanmanta astasqaña) tiyanapa ñawpaqninpi qunqurchaki, taytataq makinta umanman churan, kay simikunawantaq saminchan: “Bensalempa churin (otaq Bensalempa ususin”. ). Kay Pachapi peregrinacionniyki".</t>
+    <t>Chaymantataq hukmanta hukmanta waqyan, sutinkumanta, yuyaykusqanman hina ima, mayninpitaq edadninkuta kutichispa.</t>
+  </si>
+  <si>
+    <t> Chay waqyasqa runa (mesaqa ñanmanta astasqaña) tiyanapa ñawpaqninpi qunqurchaki, taytataq makinta umanman churan, kay simikunawantaq saminchan: “Bensalempa churin (otaq Bensalempa ususin”. ). Kay Pachapi peregrinacionniyki".</t>
   </si>
   <si>
     <t> Chhaynatan sapankankuman willan; hinaspa kayta tukuspa, wakin wawankuna méritowan virtudwan especial kaptinku (mana iskaymanta aswanchu kanku) hukmanta waqyan, hinaspa wasankupi makinta churaspa, sayasqalla kachkaptinku, paykunata nin: “Wawaykuna, [...] nacesqaykirayku Diosman graciasta qoy, allin ruwaykunapitaq tukukuykama mana saqey”, nispa.</t>
@@ -779,16 +749,13 @@
     <t> Rimasqayta uyarispan umanta k’umuykukuspa kay hinata rimarirqan:</t>
   </si>
   <si>
-    <t> Hinallataqmi casarakuymantaqa achka allin kamachikuyniyuq kanku._x000D_ Manam achka warmiyuq kayta saqinkuchu._x000D_ Manam casarakuyta atinkuchu nitaq ñawpaq casarakuy contratota raymichayta atinkuchu, punta kaq entrevista ruwasqankumanta huk killa pasanankama._x000D_ Mana tayta-mamanpa mana munasqanman hina ruwasqa casarakuytaqa manam invalidankuchu, ichaqa herederokunata multawan muchuchinku; chay casarakuykunapi wawakunaqa manan tayta-mamankuq kaqninkunamanta kinsa kaq t’aqamanta aswanta herenciata chaskiyta atinkumanchu.</t>
-  </si>
-  <si>
-    <t>Rimasqaykuta hinalla ruwachkaptiykum huk rikchaq willakuq, qhapaq pachawan pachasqa, yaykumuspan judiowan rimarqa; chaymantataq ñuqaman kutirispa qaparirqa: —Disculpaykuway, ichaqa kamachikuyniyuqmi kani chaylla ripunaypaq, nispa.</t>
+    <t> Rimasqaykuta hinalla ruwachkaptiykum huk rikchaq willakuq, qhapaq pachawan pachasqa, yaykumuspan judiowan rimarqa; chaymantataq ñuqaman kutirispa qaparirqa: —Disculpaykuway, ichaqa kamachikuyniyuqmi kani chaylla ripunaypaq, nispa.</t>
   </si>
   <si>
     <t> Paqaristinmi kusisqa hina hamuwarqan, hinaspan niwarqan: “Llaqta kamachikuqmi uyarirqan Salomonpa Wasinpa huknin taytan kunan p’unchay hamunanta, chunka iskayniyoq watañan mana mayqenninkutapas rikurqaykuchu”, nispa.</t>
   </si>
   <si>
-    <t> Chayamusqantaqa ancha hatunmi raymichakunqa, ichaqa imarayku hamusqanqa pakasqallan.</t>
+    <t>Chayamusqantaqa ancha hatunmi raymichakunqa, ichaqa imarayku hamusqanqa pakasqallan.</t>
   </si>
   <si>
     <t> Qankunaman amigoykikunamanpas allin cheqastan qosaq haykusqaykita rikunaykipaq”, nispa.</t>
@@ -803,7 +770,7 @@
     <t> Payqa chawpi sayayniyuq, edadniyuq, llamp’u rikch’ayniyuq, qharikunata khuyapayaqmanjina rikch’akuq.</t>
   </si>
   <si>
-    <t>Payqa allin yana p’achamanta p’achayuq, ancho mangasniyuq, capayuq ima; ukhu p'achaqa sumaq yuraq linomanta, chakikama chayaq, chumpiwan watasqa; huk suwa kunkanpi k’uyusqa kasqa.</t>
+    <t> Payqa allin yana p’achamanta p’achayuq, ancho mangasniyuq, capayuq ima; ukhu p'achaqa sumaq yuraq linomanta, chakikama chayaq, chumpiwan watasqa; huk suwa kunkanpi k’uyusqa kasqa.</t>
   </si>
   <si>
     <t> Payqa sumaq guanteswan churasqa, ancha chaniyuq rumikunawan, durazno terciopelo zapatokunawan ima churasqa.</t>
@@ -818,10 +785,10 @@
     <t> Barbanqa, yana chukchanmanta aswan k’anchariq, muyu k’utusqa.</t>
   </si>
   <si>
-    <t> Payqa hamurqan qhapaq carretapi, mana ruedayoq, q’opa hina, sapa ladonpi iskay caballokuna azul bordasqa terciopelowan qhapaq caparisonasqa, sapa ladonpitaq iskay noviokuna kaqlla p’achasqa.</t>
-  </si>
-  <si>
-    <t>Chay carroqa llapanmi cedromanta, qorimanta, vidriowan adornasqa, ñawpaqninpiqa zafiromanta panelesniyoqmi karqan, qori kantunkunapi churasqa, qhepanpitaq kaqlla ichaqa Perú colorniyoq esmeraldakunawan.</t>
+    <t>Payqa hamurqan qhapaq carretapi, mana ruedayoq, q’opa hina, sapa ladonpi iskay caballokuna azul bordasqa terciopelowan qhapaq caparisonasqa, sapa ladonpitaq iskay noviokuna kaqlla p’achasqa.</t>
+  </si>
+  <si>
+    <t> Chay carroqa llapanmi cedromanta, qorimanta, vidriowan adornasqa, ñawpaqninpiqa zafiromanta panelesniyoqmi karqan, qori kantunkunapi churasqa, qhepanpitaq kaqlla ichaqa Perú colorniyoq esmeraldakunawan.</t>
   </si>
   <si>
     <t> Chawpi alto patapin qori inti k’ancharishasqa; Ñawpaqpi altollapitaqmi kashasqa huk huch’uy qori querubin, raphrankuna mast’arisqa.</t>
@@ -917,28 +884,13 @@
     <t> Hinallataqmi maqanakuy corrientekuna, cascadas nisqakunapas kapuwanchis, chaykunan serviwanchis askha kuyuykunata paqarichinapaq; chaynallataqmi wayrapa kallpanta aprovechaspa imaymana kuyuykunata ruwaq maquinakunapas.</t>
   </si>
   <si>
-    <t>Hinallataqmi kan huk yupay artificial pukyukunata, fuentekunatapas, pukyukunata, baños naturales nisqakunata qatipakuspa, chaykunapim vitriol, azufre, acero, plomo, kachi, huk mineralkunapas solucionpi kachkan; hinallataq, huch’uy pukyukunatan kapuwanchis maypichus askha imaymanakunata chaqrunchis, chaykunawanmi unukunaqa aswan usqhaylla allin kayta tarinku, vasokunapi otaq estanquekunapipas._x000D_ Kaykuna ukhupin kan huk unu, chaytan sutichanchis Paraiso Yaku nispa, soberano hampi._x000D_ qhali kayta waqaychanapaq hinallataq kawsayta unayta kawsachiy._x000D_ Hatun, hatun wasikunapas kanmi, chaypim qatipanchik hinaspa qawachinchik wayra pachapi imapas kaqkunata, riti, runtu, para, mana yaku, t’uqyay, llipya ima cuerpokunapa artificial urmaynin; chay hinallataqmi wayrapi cuerpokunata paqarichinchis, sapokuna, ch’uspikuna, imaymanakuna hina.</t>
-  </si>
-  <si>
-    <t>Hinallataqmi wakin cuartokunata kapuwanchis, chaykunatan sutichanchis cámaras de salud nispa, chaypin wayrata wakichinchis, imaymana onqoykunata hampinapaq, allin kananpaq, hinallataq qhali kayta waqaychanapaq._x000D_ Hatun, sumaq bañokunatapas kapuwanchis, imaymana chaqrusqakunawan , unquykunata hampinapaq, runap kurkunta llumpay ch’akiymanta kutichipunapaq; wakintaq nerviokunaq, ancha importante partekunaq, cuerpopi sustanciaq, jugoq kallpanta yapananpaq.</t>
-  </si>
-  <si>
-    <t>Hinallataqmi askha huertakunaq huertankunapas kan, chaypin sumaq kayninkumanta aswantaqa imaymana terrenokunata, hallp’akunatapas qhawarinchis, imaymana sach’akunapaq, qurakunapaqpas allinmi; wakinqa ancha hatunmi, sachakunata tarpuspa, fresakunata, morakunata, hukkunatapas, chaykunawanmi imaymana upyanakunata ruwanchik, vinomantapas._x000D_ Tukuy rikchaq injertokunatam ruwanchik, chaynallataqmi sallqa sachakunata ruruman tikranapaq experimentokunatapas sach’akuna; tukuy kaymi achka efectos nisqakunata paqarichimun._x000D_ Chay kikin huertakunapi, huertakunapipas artificial nisqawanmi aypanchik sachakunapas waytakunapas manaraq chayman hina pachayuq kachkaptinku utaq qipaman waytanankupaq, chaynallataqmi aswan utqaylla rurunku, normal evolución nisqankuta qatipasqankumantaqa ._x000D_ Hinallataqmi aypanchik aswan hatun sayayniyuq kay natural kaqmanta, chaymanta rurunku aswan hatun hinaspa aswan misk’i, hinallataq huk sabor, asnay, llimp’i, rikch’ayniyuq kay naturalezamanta kaqkunamanta._x000D_ Achka paykunamanta llamk’achiy atikun hampi hina ._x000D_ Yachanchikmi imaymana yurakunata tarinapaq hinaspa wiñayninkunata wiñachinapaq allpakuna chaqrusqawan, mana muhuyuq, chaynallataq musuq yurakunata kunan kaqkunamanta huknirayta ruruchinapaq, chaynallataq huk sacha utaq yura hukman tikrakunanpaq.</t>
-  </si>
-  <si>
-    <t>Hinallataqmi kan parquekuna, cercokuna ima tukuy rikchaq uywakunayuq, chaykunataqa manam qawachinapaqllachu servichikunchik pisilla kasqanrayku aswanqa disecciones nisqapaqpas, experimentokunapaqpas; kay hinapin analogíawan tarisunman runaq cuerponmanta askha onqoykunata._x000D_ Achka mana reqsisqa efectokunatan tarirqanchis, chaykunapin kawsayqa hinalla kashan, ancha allinpaq qhawarisqa partekuna chinkapun otaq kuchusqaña kaqtinpas; wakin wañusqa hina kaqkunata kawsarichispa, chayman rikchakuq casokunatapas._x000D_ Hinallataqmi tukuy rikchaq venenokunatapas hampikunatapas chaykunapi pruebarqaniku, hampipa hinaspa operacionpa allinninpaq._x000D_ Artificialtam ruwanchik aswan hatun utaq aswan hatun rikchaq kayninmanta , hinaspapas contrario, enanoman tukuchispa wiñayninta sayachinchis; Aswan puquyniyuq, ruruchiqta ruwayku especienkumanta, aswanqa, estéril, mana abono ruwayta atiq._x000D_ Achka ruwaykunapi, llimp’inkuta, sayayninta, ruwayninta ima tikranchik._x000D_ Tarirqayku imaynatachus imaymana géneros nisqakunata chimpayta, chaykunan qusqaku as resulting many new species, which are not sterile as the general opinion supposes._x000D_ Ruwanchikmi huk yupay especiekunata mach’aqwaykunata, kurukunata, ch’uspikunata, challwakunata, materia ismuchiqmanta, especienkumantataqmi wakinqa, en efecto, aswan hunt’asqa serkunaman tukunku , imaynan animalkuna otaq pisqukuna, paykuna kikinku sexoyoq kanku hinaspa miranku._x000d_ no hacemos todo esto al azar, ya que sabemos de antemano cuyo seres surgen de una cruz y materia._x000d_ también tenemos estanques para hacer experimentos con . challwakunata, ñawpaqpi nisqanchis hina, pisqukunata, huk uywakunatapas respetaspa.</t>
-  </si>
-  <si>
-    <t>Hinallataqmi kanmi sitiokuna mikuchinapaq hinaspa mirachinapaq chay especie de gusanos y moscas nisqakuna utilidad especial nisqayuq, ahinataq seda kurukunayki hinaspa abejaykikuna._x000D_ Manam unaytachu waqaychasaq cervecerías, panaderías y cocinas nisqaykumanta descripción nisqawan, maypi Varios bebidas , t’antakuna, aychakuna ima ruwasqa, pisilla, efectos especiales nisqawan ima.</t>
-  </si>
-  <si>
     <t> Uvas vinokunata, upyanakunatapas huk ruru jugokunamanta ruwasqa, granukunamanta, saphikunamanta, mielwan, azúcarwan, manáwan, ch’akisqa, condensada rurukunawan chaqrusqa ima kapuwanchis; sachakunapi kuchusqakunawan destilasqa jugomanta, kaspikunapa pulpanmantapas kaqllataqmi.</t>
   </si>
   <si>
-    <t> Kay upyanakunaqa hukniray edadniyuqmi, wakinqa tawa chunka watakamam.</t>
-  </si>
-  <si>
-    <t>Hinallataqmi imaymana qurakunawan, saphikunawan, q’apaykunawan ima chaqrusqa upyanakunatapas; imaymana aychakunawanpas, chhaynapin kay ukyanakunaqa aychaq mikhunanwan ukyanawan kaq pachallapi kan; chhaynapin astawanqa kuraq runakunaqa chaykunawan kawsankuman, mana aychatapas t’antatapas hap’ispa.</t>
+    <t>Kay upyanakunaqa hukniray edadniyuqmi, wakinqa tawa chunka watakamam.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi imaymana qurakunawan, saphikunawan, q’apaykunawan ima chaqrusqa upyanakunatapas; imaymana aychakunawanpas, chhaynapin kay ukyanakunaqa aychaq mikhunanwan ukyanawan kaq pachallapi kan; chhaynapin astawanqa kuraq runakunaqa chaykunawan kawsankuman, mana aychatapas t’antatapas hap’ispa.</t>
   </si>
   <si>
     <t> Kallpachakunchik, tukuy imamanta aswantaqa, ancha sutil upyanakunata tarinapaq, chaykunam cuerpoman yaykun mana ima mana allintapas ruwaspa, chaynapi wakinninku, makipa qipanpi churasqa kaptinqa, pisi ratullamanta, palmaman pasanankupaq, hinaspa imayna kaptinpas paladarpi llamp’u kanku.</t>
@@ -956,13 +908,7 @@
     <t> Hinallataqmi imaymana aycha, t’anta, ukyana ima kapuwanchis, chaywanmi qharikuna unayta kawsanku; wakintaq runaq cuerponta reparaypaq aswan kallpayoq, aswan hark’akuqta ruwaq, kallpanpas aswan hatun kasqanmanta, mana chayqa.</t>
   </si>
   <si>
-    <t>Dispensariokuna utaq hampi rantiqkunayuqmi kayku, chaypim qawakun Europapi qamkunamanta aswan achka imaymana yurakunayuq, kawsaqkunapas (imaraykum yachanchik ima kapuqnikichikta); hampi qurakuna, hampikuna, hampikunapaq ingredientekunapas ancha imaymanapi tarikun._x000D_ Chaykunataqa hukniray pachakunamanta, unay fermentacionkunamantapas kapuwanchik._x000D_ Wakichiyninkumantaqa, manam._x000D_ aparatokunallachu kapuwanchik tukuy laya delicado destilaciones y separaciones ruwanapaq, ichaqa formas exactas de composición nisqakunatapas, chaywanmi llapa rurukunata churanku elemento natural hina rikhurinanpaq._x000D_ Hinallataqmi artes mecánicas nisqakunatapas faltankichis; paykunaq ruwasqanku materialkuna, ahinataq papel, lino, seda, tejido, sumaq k’anchariq delicado qaramanta ruwasqa, allin tintekuna, askha imakuna ima; Hinallataqmi kan tiendakuna, kunan pacha hinallataq lujo.</t>
-  </si>
-  <si>
-    <t>Yachanayki tiyan achka qillqasqakuna listasqayqa tukuy suyupi puririsqanmanta, llamk’achisqa kasqanmanta ichaqa, inventividadninchikpa rurun kasqanrayku, copiakunata, modelonkunatapas waqaychanchik.</t>
-  </si>
-  <si>
-    <t>Ancha imaymana hornokunatan kapuwanchis, hukniray ruphay kallpayoqtaqmi: ígneo hinallataq kawsaq; kallpasapa, mana chiriyaspa; chiri, llamp’u; mantenido, lento, ch’aki, humedad, etc._x000D_ Ichaqa, llapanmanta aswantaqa, intiq ruphayninta qatipakuspa, hanaq pacha cuerpokunamantapas clase ruphayniyoqmi kanchis, chaykunan pasanku imaymana gradokuna kallpawan, hinallataq, nisunman hina, sujeto órbitas, avances y retrasos, y que producen efectos admirables._x000D_ Hinaspapas, kawsaqkunapa wanumanta, wiksanmanta, visceramanta, yawarninkumanta, cuerponkumanta, henomanta, humedad pastomanta, cal vivamanta, hukkunamantapas ruphayniyuqmi kanchik. Hinallataqmi kapuwanchis instrumentokunata, chaykunan ruphaytaqa paqarichimunku kuyuywan, hinallataq sinchi insolacionman destinasqa cheqaskunatapas._x000D_ Astawanqa, cuerpokunata llapanta t’aqanapaq cheqaskunata, hinallataq allpa ukhupi kaq cheqaskunatapas, chaykunan naturalmente otaq artificialmente ruphaytaqa paqarichimunku._x000D_ Kay imaymana ruphaykunatan utilizanchis chay operacionta, chaytan kallpachakushanchis ruwanapaq._x000D_ Laboratoriokunayuqmi kayku, chaypim tukuy rikchaq pruebakunata ruwayku k’anchaymanta, radiaciónmanta hinaspa colorkunamanta; Mana llimp’iyuq, sut’i kaq imakunamanta qallarispa, llapa imaymana llimp’ikunata rikuchiyta atisunman, mana espectromantachu (imaynan gemakunapi, prismakunapipas rikukun hina) aswanpas sapankantan astawanqa.</t>
+    <t> Yachanayki tiyan achka qillqasqakuna listasqayqa tukuy suyupi puririsqanmanta, llamk’achisqa kasqanmanta ichaqa, inventividadninchikpa rurun kasqanrayku, copiakunata, modelonkunatapas waqaychanchik.</t>
   </si>
   <si>
     <t>Hinallataqmi askha k’anchaykunata rikuchinchis, chaykunatan hatun karuman apaykusunman, hinaspan ancha atiyniyoqman tukuchisunman, chhaynapi huch’uy puntokunata, chirukunata t’aqanapaq.</t>
@@ -992,16 +938,13 @@
     <t> Tukuy laya reflexionkunata, refracciones nisqakunata, imakunapas rikuy rayos nisqakunata mirachinchik.</t>
   </si>
   <si>
-    <t>Ñoqaykupas imaymana chaniyoq rumikunayoqmi kayku, askhan ancha sumaq, manataqmi yachankichischu; chay hinallataqmi, cristalkuna, imaymana clase lentes nisqakunapas; kaykuna ukhupi, metales cristalizados, huk materiales ima, además - chaywantaq vidrio ruwasqa kachkan._x000D_ Chaynallataq, minerales imperfectos y fósiles mana kapuqniyki._x000D_ Hinallataq, imán de virtud prodigiosa hinallataq huk rumikuna mana ancha rikusqa, artificialpas naturalpas ._x000D_ Laboratorios acústicos nisqapas kanmi, chaypim practicanchik hinaspa qawachinchik llapa t’uqyaykunata, imayna ruwasqa kasqanmantapas.</t>
-  </si>
-  <si>
     <t> Ñuqaykuqa kanmi armonías mana qampaq, tawa kaq hinaspa uchuy intervalos, Imaymana instrumentokuna, mana yachasqayki, wakinqa aswan misk’iraqmi chaykuna hap’inaykipaq, campanakunawan kuska hinaspa delicado hinaspa armonioso timbrekunawan kuska.</t>
   </si>
   <si>
-    <t>Pisi t’uqyaykunata alto, ukhuta ruwanchis, chay hinallataqmi alto t’uqyaykunata ruwanchis pisi, alto; t’uqyaykuna qallariypi mana tukukuq t’uqyaykuna susurquyman, chiqchikunaman ima tikranchik.</t>
-  </si>
-  <si>
-    <t> Llapan articulasqa letrakunata, t’oqyaykunata, hinallataq pisqukunaq, uywakunaq waqayninta, notakunatapas representayku, qatipayku ima.</t>
+    <t> Pisi t’uqyaykunata alto, ukhuta ruwanchis, chay hinallataqmi alto t’uqyaykunata ruwanchis pisi, alto; t’uqyaykuna qallariypi mana tukukuq t’uqyaykuna susurquyman, chiqchikunaman ima tikranchik.</t>
+  </si>
+  <si>
+    <t>Llapan articulasqa letrakunata, t’oqyaykunata, hinallataq pisqukunaq, uywakunaq waqayninta, notakunatapas representayku, qatipayku ima.</t>
   </si>
   <si>
     <t> Wakin aparatokuna ninriman churasqa kanchik, chaykunam aswan allinta uyarinapaq hinaspa aswan kallpawan uyarinapaq.</t>
@@ -1013,9 +956,6 @@
     <t> Hinallataqmi kapuwanchik tubokunawan, conductokunawan, mana riqsisqa chirukunawan, hatun karukunapi t’uqyaykunata purichinapaq.</t>
   </si>
   <si>
-    <t>Hinallataqmi kan laboratorio perfumería nisqakuna, chaypin imaymana pruebakunata ruwanchis._x000D_ Asnaykunata mirachinchis, chayqa mana reqsisqamanmi rikch’akunman; q’apaykunata qatipanchis, chaymi hukniray q’apayniyoq kanchis, chaykunata ruwaq sustanciakunamanta._x000D_ Chay hinallataqmi imaymana sabor imitacionta ruwanchis, chaywanmi mayqen qhariq paladarnintapas engañanman._x000D_ Kay laboratoriopiqa kantaqmi misk’i ruwanatapas departamento maypichus ruwayku tukuy laya misk’ikunata, sólido chanta líquido, chanta imaymana sumaq vinokunata, leche, caldos chanta ensaladas ima aswan jatun variedadpi qampaq._x000D_ Ñuqaykutaq makina wasikunayuq kayku, chaykunapitaq makinakunata, instrumentukunata ima wakichiyku tukuy laya kuyuykunata rurana.</t>
-  </si>
-  <si>
     <t>Chaykunapiqa aswan utqaylla kuyuykunata practicayku hinaspa qatipayku, mosqueteykikunawanpas utaq ima instrumentoykiwanpas; kaytataq aswan facilta, pisi kallpawan ima ruwanaykipaq, mirachinaykipaqpas, ruedakunawan huk ruwaykunawanpas, chhaynapitaq qankunamanta aswan atiyniyoq, aswan maqanakuq kananpaq, aswan hatun cañonniykikunata atipanankupaq.</t>
   </si>
   <si>
@@ -1034,51 +974,30 @@
     <t>Kawsaqkunapa kuyuynintapas qatipakunchikmi, ahinataq runa, uywakuna, pisqukuna, challwakuna, mach’aqwaykunapas; Hinallataqmi riqsinchik achka huk kuyuykunatapas, pisilla kanku kaqlla kayninkurayku, sumaq kayninkurayku hinaspa sutil kayninkurayku.</t>
   </si>
   <si>
-    <t> Hinallataqmi kan huk departamento matemáticas nisqa, chaypin llapa exquisitamente fabricado instrumentokuna, geometría nisqapas, astronomía nisqapas, representasqa kashan._x000D_ Hinallataqmi kan wasikuna ilusiones de los sentidos nisqakuna, chaypin ruwanchis sleight of hand, falsa apariciones, impostores, ilusiones y falacias nisqakunata.</t>
-  </si>
-  <si>
     <t> Faciltan creenkichis, cheqaqtapunin, ñoqanchis, askha natural kaqkunata admirachiq kasqanchista, sentidokunata engañasunman kaykunata pakaspa, hinaspataq yuyaykusunman milagro hina qhawarichisunman chayqa.</t>
   </si>
   <si>
-    <t>Ichaqa chiqninchismi engañaqkunata, llullakunatapas, chaymi llaqtamasinchiskunata sinchita hark’anchis, p’enqay nanaywan, multawan ima, ima adornasqa otaq exagerasqa obra naturalta rikuchinankupaq, original ch’uya kayninpi, mana ima afectasqatapas rikuchinanchista.</t>
-  </si>
-  <si>
-    <t> Chay hinan, churiy, Salomonpa Wasinpa qhapaq kayninkuna._x000D_ Llaqtamasinchiskunaq llank’ayninpa, qhatuyninkunaq hatarichisqan necesidadkunata hunt’anapaq, chunka iskayniyoqmi huk suyukunaq banderanwan hawa llaqtakunaman barcopi purinku (ñuqaykuqa pakaykunchismi) , apamuspa us librokuna, resumenkuna hinaspa modelokuna experimentokuna ruwasqa tukuy hinantinpi.</t>
+    <t> Ichaqa chiqninchismi engañaqkunata, llullakunatapas, chaymi llaqtamasinchiskunata sinchita hark’anchis, p’enqay nanaywan, multawan ima, ima adornasqa otaq exagerasqa obra naturalta rikuchinankupaq, original ch’uya kayninpi, mana ima afectasqatapas rikuchinanchista.</t>
   </si>
   <si>
     <t> Chay runakunatan ninchis K'anchay qhatuqkuna nispa,</t>
   </si>
   <si>
-    <t> Kimsataqmi huñun llapa qillqakunapi tarisqa experimentokunata._x000D_ Kaykunatam sutichanchik Depredadores nispa._x000D_ Kimsataqmi huñun artes mecánicas nisqapi, ciencias liberales nisqapi, artes nisqapi mana churasqa ruwaykunata .</t>
-  </si>
-  <si>
     <t> Kaykunataqa sutichanchik.</t>
   </si>
   <si>
-    <t>chay Misterio Runakuna.</t>
-  </si>
-  <si>
-    <t> Kimsami musuq experimentokunata pruebanku, allin qawasqankuman hina._x000D_ Pioneros utaq Minero nispam sutichanchik,_x000D_ Kimsami catalanku tawa huñukunapa experimentokunata, ñawpaqta titulokunapi hinaspa tablakunapi listasqa, chaynapi aswan allinta kancharichinapaq chaykunamanta hurqusqa qawariykunata hinaspa axiomakuna hurquyta.</t>
+    <t> chay Misterio Runakuna.</t>
   </si>
   <si>
     <t> Chaykunataqa Compiladores nispa sutichanchik.</t>
   </si>
   <si>
-    <t>Kimsataqmi compañeronkunapa experimentokunata qawarinku, chaymantam runapa kawsayninpaq hinaspa yachayninpaq allin hinaspa ruwaypaq kaqkunata hurquyta munaspanku yuyaymananku; hinallataqmi kaqllata llank’ayninkumanta, patente rikuchiymanta causakuna, medios de adivinación natural, hinallataq usqhaylla sut’i tariy allin kayninkunata, cuerpokunaq partenkunatapas._x000D_ Paykunatan sutichanchis Donantes otaq Benefadores nispa._x000D_ Chaymanta, imaymana huñunakuykunamanta, consultasmantawan Llapan miembrokunamanta qhawarinapaq investigacionkunata hinallataq síntesis ruwasqakunata ñawpaq kaqpi, kinsa paykunamanta kapuwanchis, paykunan preocupakunku mosoq experimentokuna qhawaymanta hinallataq dirigiymanta, aswan hatun qhawariymanta, hinallataq aswanta haykuspa - naturalezaman ñawpaq kaqkunamantaqa .</t>
-  </si>
-  <si>
     <t> Chaykunataqa Lamparakunatam sutichanchik.</t>
   </si>
   <si>
-    <t>Kimsa hukkunam kayhinata ruwasqa experimentokunata ruwanku, hinaspa chaykunaman willanku._x000D_ Inoculadores sutiwanmi riqsinchik._x000D_ Tukuchanapaqmi kimsa kapuwanchik, chaykunam sintetizanku chay experimentokunawan tarisqakunata aswan amplitudniyuq qawariykunapi, axiomakunapi hinaspa aforismokunapi.</t>
-  </si>
-  <si>
     <t> Paykunataqa Intérpretes de la Naturaleza nispa sutichanchik.</t>
   </si>
   <si>
-    <t>Entiendesqaykichikman hinaqa, qallariqkunapas, yachapakuqkunapas kanmi, chaynapi punta kaq qarikuna llamkachisqakunapa sucesión nisqa mana afectasqa kananpaq; hinallataqmi askha kamachikuqkunapas, kamachikunapas, qharikunapas warmikunapas._x000D_ Kaykunatapas ruwayku: rimanakuykunata ruwayku mayqen inventokuna, tariykunapas willasqa kananmanta, mayqenkunataq mana; Llapa runan juranku pakasqa kananpaq, chaykunatan ruwananchispaq qhawarinchis, wakin kutitaqmi wakinninchis Estadoman sut’inchanchis wakintaq mana._x000D_ Ceremonianchiskunapaq, ritonchiskunapaqpas iskay ancha suni sumaq galeríakunayoqmi kanchis; hukninpim churanchik modelokunata hinaspa especímenes nisqakunata tukuy laya aswan pisilla hinaspa aswan allin inventokunamanta; hukninpitaqmi hatun inventorkunapa estatuakuna.</t>
-  </si>
-  <si>
     <t>Chaypin kapuwanchis Colón nisqaykichispa estatuan, paymi Antillas Occidentales nisqakunata tarirqan; bote paqarichiqman; artilleríata, pólvora nisqatapas inventaq monjeykiman, takikunata inventaqman; cartakuna paqarichiqman; imprenta ruwaq, quyllur yachayta paqarichiq; q’illay ruwaykunata paqarichiqman; cristal nisqa paqarichiqman; kurukunapa seda tariqman; vinota paqarichiqman; sara, trigo t’anta paqarichiq; azúcar inventaqman, hinallataq llapa tradicionman hina yachasqanchis runakunamanpas.</t>
   </si>
   <si>
@@ -1091,13 +1010,10 @@
     <t>Chay estatuakunaqa broncemanta, mármolmanta, jaspemanta, cedromanta, huk qorimanta, sumaqchasqa k'aspikunamantawan. wakintaq fierromanta, qullqimanta utaq qurimanta ruwasqa.</t>
   </si>
   <si>
-    <t> Wakin takikunata, religioso serviciokunatapas yupaychayta, Diosman gracias nisqatapas sumaq ruwayninkunamanta, chaykunatan sapa p’unchay niyku._x000D_ Hinallataq mañakuykunata yanapayninta mañakunanchispaq, hinallataq saminchananchispaq llank’ayninchiskunapi, hinallataq allin ch’uya aplicacionkunata qonanchispaq._x000D_ Tukuyninpiqa, Noqayku wakin circuitokunata otaq reino hatun llaqtakunaman watukuykunata ruway, chaypin reqsichinchis, allinpaq qhawarisqanchisman hina, aswan mosoq, aswan gananciayoq inventokunata.</t>
-  </si>
-  <si>
     <t> Willaykutaqmi iñiypaq willakuykunata unquykunamanta, plagakunamanta, invasiones de verminkunamanta, magra watakunamanta; wayra-parakuna, pacha kuyuy, hatun unu hunt’ay, quyllurkuna, watapi q’uñi kaynin, huk imaymana ruwaykunapas; chayraykun yuyaychayku ima ruwanankumanta mana allinkunamanta karunchakunankupaq, allichanankupaqpas".</t>
   </si>
   <si>
-    <t>Kayta niyta tukuruspataq sayarirqa; yachachiwasqankuman hinan ñawpaqenpi qonqoriykurqani; Paña makinta umayman churaspa niwarqan: “Dios saminchasunki, waway, saminchasunkitaq willakuyniytapas”, nispa.</t>
+    <t> Kayta niyta tukuruspataq sayarirqa; yachachiwasqankuman hinan ñawpaqenpi qonqoriykurqani; Paña makinta umayman churaspa niwarqan: “Dios saminchasunki, waway, saminchasunkitaq willakuyniytapas”, nispa.</t>
   </si>
   <si>
     <t> Autorizaykimanmi llapa nacionkunaq allinninpaq chayta horqonaykipaq, ñoqanchisqa kaypi, Diospa sinqanpi, mana reqsisqa hallp’a hina qhepasqanrayku”, nispa.</t>
@@ -1106,13 +1022,256 @@
     <t> Hinaspa saqiruwarqa, iskay waranqa ducat qullqita quwaspan, ñuqapaqpas compañeroykunapaqpas.</t>
   </si>
   <si>
-    <t> Hatariq kutikunapiqa llapallankum ancha qukuykuq karqaku.</t>
+    <t>Hatariq kutikunapiqa llapallankum ancha qukuykuq karqaku.</t>
   </si>
   <si>
     <t> [puchuq qillqasqaqa mana hunt’asqachu karqan].</t>
   </si>
   <si>
     <t> TOCINO</t>
+  </si>
+  <si>
+    <t> Qespichiqninchis hanaq pachaman wicharisqanmanta yaqa iskay chunka wata qhepamanmi Renfusa llaqtapi tiyaqkuna (islanchispa inti lloqsimuy ladonpi kaq llaqta) rikurqanku iskay kinsa legua karullapi (tutaqa phuyuyoq thakmi karqan) lamar-qochapi hatun k’anchay pilarta; columna otaq cilindroman rikchakuqmi karqa, lamar quchamanta hanaq pachaman wichariq; Patachanpin kashasqa hatun k’anchariq cruz, pilarpa ejenmantaqa aswan k’anchariq, aswan k’anchariq.</t>
+  </si>
+  <si>
+    <t> Chayna mana riqsisqa qawanawan tupaspankum llaqtapa runakunaqa chaylla lamar quchapa patanpi huñunakurqaku chayta qawanankupaq; chaymantataq chay sumaq rikuyman asuykunankupaq askha huch’uy botekunaman seqarqanku.</t>
+  </si>
+  <si>
+    <t>Ichaqa pilarmanta yaqa soqta chunka yarda kashaqtinkun tarirqanku mana aswan karuta riyta atisqankuta, huk ladomanña puriyta atirqanku chaypas; Runakunaqa botekunapin qhepakurqanku yuyaymanaspa, teatropi hina, chay k’anchayta qhawaspa, hanaq pacha señal hina.</t>
+  </si>
+  <si>
+    <t> Pasasqa huknin boteqa huknin aswan yachaysapa runanchismi karqan, Sociedad de Salomón Wasimanta "", wasimanta otaq escuelamanta, munasqa wawqeykuna, chaymi kay reinoq almanta ruwan; huk ratu pilartapas cruztapas allinta qhawarispa, yupaychaspa, kay yachaysapa runaqa uyanta urmaykurqan, chaymantataq, aysarikuspa makinkunata hanaq pachaman hoqarispa, kay hinata mañakurqan:,"</t>
+  </si>
+  <si>
+    <t> Wiraqocha, hanaq pachaq, kay pachaq Diosnin, khuyapayakuyniykiwanmi saqewarqanchis kamasqakunata, llank’ayniykita, pakasqa kaqkunatawan reqsinanchispaq; hinaspa reparay (runaq atisqanman hina) hanaq pacha milagrokunata, naturalezaq ruwasqankunata, artistakunata, hinallataq engañaqkunatapas, tukuy imaymana ilusiones nisqakunatapas.</t>
+  </si>
+  <si>
+    <t>Kay llaqtamanmi testifikani kay ratopi yuyaymanasqanchikqa dedoyki kasqanmanta, hinaspapas chiqap milagro kasqanmanta.</t>
+  </si>
+  <si>
+    <t> Hinaspapas, libronchiskunapi yachasqanchis hina, milagrokunata ruwankichis allin, hanaq pachaq tukukuyninta qhawarispa (imaraykuchus naturalezaq kamachikuyninkunaqa qanpa kamachikuyniykichismi, manataqmi t’ijrankichischu, aswanpas hatun razonraykullan), huch’uyyaykukuspa mañakuyku qankunamanqa atiykumanmi kay hatun señalta t’ikrayta; chaytataqmi prometewaq hina, apachimuwaspayku”, nispa.</t>
+  </si>
+  <si>
+    <t> Fraseninta tukuruspanmi musyarurqa boteqa mana harkakuspalla kuyuyta atisqanmanta, wakinñataqmi mana kuyurispalla qiparqaku; kaytataq asuykunanpaq permisota hina hap’ispa, ch’inlla boteta remarqan pilarkama.</t>
+  </si>
+  <si>
+    <t>Ichaqa chayman asuykuqtinmi, pilarpas k’anchariq cruzpas - chinkapurqan, p’akikuspa, nisunman, ch’askakunaq hawanman, chaypas pisi tiempollamantan chinkapurqan; manataqmi imapas rikukurqanchu, aswanpas huk huch’uy cedro cajacha otaq caja, ch’aki, manataqmi maqchisqachu unu patapi phawaykachashaqtinpas.</t>
+  </si>
+  <si>
+    <t> Ñawpaqninpi, aswan qaylla kaqninpi, wiñasqa huk huch’uy q’umir palmera k’allma; chay yachaysapa runaqa chay cajata makinpi hap’ispa, tukuy respetowan kicharispa huk librota huk cartatawan ukhupi tarirqan, iskayninku sumaq pergaminopi qelqasqa, tela t’aqakunapitaq rollochasqa.</t>
+  </si>
+  <si>
+    <t> Chay libropin kasharqan Ñawpa Testamentopi, Mosoq Testamentopi llapa canónico librokuna, imaynan qanpas kapusunkichis hinata (yachanchismi Iglesiayki chaykunata chaskisqanmanta), Apocalipsispas; Mosoq Testamentopi huk librokunapas karqanmi, chay tiempopi manaraq qelqasqaña kashaqtinpas.</t>
+  </si>
+  <si>
+    <t> Chay cartapin kay simikuna kasharan:</t>
+  </si>
+  <si>
+    <t>Ñoqa Bartolomé, Ancha Hatun Diospa kamachin, Jesucristoq apostolnin, huk angelmi anyawarqan, paymi huk sumaq rikuypi rikhurimuwarqan, kay cajata lamar-qochaq olakunaman churanaypaq”, nispa.</t>
+  </si>
+  <si>
+    <t> Kay qelqakunawanmi, librowanpas cartawanpas, apostolkunaq ruwasqanman rikch’akuq hatun milagro sucederqan: ñawpaq simikuna qosqankumanta.</t>
+  </si>
+  <si>
+    <t> Chay pacha, kay hallp’api kawsaspa, hebreokuna, persakuna, indiokuna, hinallataq chay suyupi tiyaq runakunapas, llapankun chay librota, cartatapas leeyta atirqanku, kikin siminkupi qelqasqa hina.</t>
+  </si>
+  <si>
+    <t> Chay hinapin, hinallataq arcawan otaq cajawan, kay hallp’aqa mana hunt’aq kaymanta qespichisqa karqan (awpa pachaq huknin parten unu hunt’aymanta qespichisqa kasqanman hina) San Bartoloméq milagro hinallataq apostólico evangelización nisqawan".</t>
+  </si>
+  <si>
+    <t> Wakin takikunatan kapuwanchis, religioso serviciokunatapas, Diosman alabanapaq, gracias nisqatapas, admirakuypaq ruwasqanmanta, chaykunatan sapa p’unchay rimanchis.</t>
+  </si>
+  <si>
+    <t>Hinallataq mañakuykuna yanapayniykichista mañakunaykichispaq, hinallataq llank’ayninchiskunapi saminchanaykichispaq, hinallataq allin ch’uya aplicacionkunata qonaykichispaq.</t>
+  </si>
+  <si>
+    <t> Tukuchanapaqtaq, wakin circuitokunata utaq watukuykunata ruwanchik reinopa hatun llaqtakunaman, chaypim riqsichinchik, allinpaq hapisqanchikman hina, aswan musuq hinaspa aswan gananciayuq inventokunata".</t>
+  </si>
+  <si>
+    <t> Entiendesqaykichikman hinaqa, qallariqkunapas, yachapakuqkunapas kanmi, chaynapi punta kaq qarikuna llamkachisqakunapa sucesión nisqa mana afectasqa kananpaq; astawanqa, askha kamachikuna, kamachikunayoqmi kanchis, qharipas warmikunapas.</t>
+  </si>
+  <si>
+    <t> Kaykunatapas ruwayku: consultakunata ruwayku mayqin inventokuna, tarisqakuna willasqa kananta, mayqinkunatachus mana willanapaq kaqta rimanakunaykupaq; Llapa runan juranku pakasqa kananpaq, chaykunatan qhawarinchis chhaynata ruwananchispaq, wakin kutitaqmi Estadoman sut’inchanchis, wakintaq mana.</t>
+  </si>
+  <si>
+    <t>Ceremoniaykupaq, ritoykupaqpas iskay ancha suni sumaq galeríakunayoqmi kayku; hukninpim churanchik modelokunata hinaspa especímenes nisqakunata tukuy laya aswan pisilla hinaspa aswan allin inventokunamanta; hukninpitaqmi hatun inventorkunapa estatuakuna".</t>
+  </si>
+  <si>
+    <t> Kimsa runakunañataqmi chayna dirigisqanku experimentokunata ruwanku, hinaspa paykunaman willanku.</t>
+  </si>
+  <si>
+    <t> Paykunataqa Inoculadores sutiwanmi riqsinchik.</t>
+  </si>
+  <si>
+    <t> Tukuchanapaq, kimsayuqmi kanchik, chaykunam sintetizanku experimentokunawan tarisqakunata qawariykunaman, axiomakunaman hinaspa aforismokunaman aswan anchoyuqman".</t>
+  </si>
+  <si>
+    <t> Kimsataqmi compañeronkunapa experimentokunata qawarinku, chaymantam runapa kawsayninpaq hinaspa yachayninpaq allin hinaspa ruwaypaq kaqkunata hurquyta munaspanku yuyaymananku; hinallataqmi kaqllataqmi llank’ayninkunapaq, causakuna, natural adivinación mediokuna, hinallataq cuerpokunaq allin kayninkunata, partenkunatapas usqhaylla sut’i tarisqanmantawan.</t>
+  </si>
+  <si>
+    <t> Paykunatan sutichanchis Donantes otaq Benefadores nispa.</t>
+  </si>
+  <si>
+    <t>Chaymanta, imaymana huñunakuykunamanta, llapa miembrokunaq consultasqankumanta, ñawpaq kaqpi investigacionkunata, síntesis ruwasqakunata qhawarinapaq, kinsa paykunamanta kapuwanchis, paykunan cuidanku qhawarinankupaq, diriginankupaq ima mosoq experimentokunata, aswan hatun qhawariymanta, hinallataq aswanta haykuspa - ñawpaq kaqkunamantaqa naturalezapi".</t>
+  </si>
+  <si>
+    <t> Kimsataqmi musuq experimentokunata pruebanku, allin qawasqankuman hina.</t>
+  </si>
+  <si>
+    <t> Paykunataqa Precursor otaq Minero nispan sutichanchis, .</t>
+  </si>
+  <si>
+    <t> Kimsami catalogan tawa huñukunapa experimentokuna ñawpaq yupasqa titulokunapi, tablakunapi, aswan allinta kancharichinapaq chaykunamanta hurqusqa qawariykunata, axiomas nisqakuna hurquyta".</t>
+  </si>
+  <si>
+    <t> Kimsataqmi llapa qillqakunapi tarisqa experimentokunata huñun.</t>
+  </si>
+  <si>
+    <t> Kaykunataqa Depredadores nispa sutichanchik.</t>
+  </si>
+  <si>
+    <t> Kimsa huñunku artes mecánicas nisqapi, ciencias liberales nisqapi, artes nisqapi mana churasqa ruwaykunapipas".</t>
+  </si>
+  <si>
+    <t> Chhaynatan waway, Salomonpa Wasinpa qhapaq kayninkunaqa.</t>
+  </si>
+  <si>
+    <t>Llaqtamasinchiskunaq llank’ayninpa, qhatuyninpa hatarichisqan necesidadkunata hunt’anankupaqmi, chunka iskayniyoq paykunamanta huk suyukunaq banderanwan hawa llaqtakunaman barcopi rinku (imaraykuchus noqaykuqa pakaykuyku), librokunata, resumenkunata, tukuy hinantinpi ruwasqa experimentokuna modelokunatapas apamuwaspayku".</t>
+  </si>
+  <si>
+    <t> Hinallataqmi kan matemáticas nisqa departamento, chaypin llapa instrumentokuna, geometría nisqapas, astronomía nisqapas, representasqa kashan, sumaq ruwasqa.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi kapuwanchis wasikunaq ilusiones de los sentidos nisqakuna, chaypin pukllanchis sleight of hand, llulla rikhuriykuna, engañaq, ilusiones y falacias nisqakuna".</t>
+  </si>
+  <si>
+    <t> Hinallataqmi kan laboratorio perfumería nisqakuna, chaypin imaymana pruebakunata ruwayku.</t>
+  </si>
+  <si>
+    <t> Asnaykunata mirachinchik, chayqa mana riqsisqa hinam kanman; q’apaykunata qatipanchis, chaymi hukniray q’apayniyoq kanku chayta ruwaq sustanciakunamantaqa.</t>
+  </si>
+  <si>
+    <t> Chaynallataqmi imaymana imitacionkunata ruwanchik chay sabormanta, chaynapi mayqan qaripa paladarninta engañanankupaq.</t>
+  </si>
+  <si>
+    <t>Kay laboratoriopiqa kantaqmi departamento de confitería nisqa, chaypin ruwayku tukuy laya misk’ikunata, sólido nisqakunata, líquido nisqakunatapas, hinallataq imaymana sumaq vinokunata, lechekunata, caldokunata, ensaladakunata ima, aswan askha imaymanakunata, qankunamantaqa.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi maquinakuna ruwana wasipas kan, chaypin maquinakunata, instrumentokunatapas wakichiyku tukuy imaymana kuyuykunata ruwanaykupaq".</t>
+  </si>
+  <si>
+    <t> Ñoqaykupas imaymana chaniyoq rumikunayoqmi kayku, askhan ancha sumaq, manataqmi yachankichischu; chay hinallataqmi, cristalkuna, imaymana clase lentes nisqakunapas; chaykuna ukhupiqa, cristalizado q'illaykuna, huk imakunapas, chaymantapas - mayqinkunawanchus vidrio ruwasqa kanku chaykunaman.</t>
+  </si>
+  <si>
+    <t> Chaynallataqmi mana huntasqa mineralkunata hinaspa mana kapuqniki fósiles nisqakunatapas.</t>
+  </si>
+  <si>
+    <t> Hinallataq, imán de virtud prodigiosa huk mana ancha rikusqa rumikunapas, artificialpas naturalpas.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi laboratorio acústico nisqatapas kapuwanchis, chaypin practicanchis, rikuchiyku llapa t’uqyaykunata, imayna ruwasqa kasqanmantapas".</t>
+  </si>
+  <si>
+    <t>Ancha imaymana hornokunatan kapuwanchis, hukniray ruphay kallpayoqtaqmi: ígneo hinallataq kawsaq; kallpasapa, mana chiriyaspa; chiri, llamp’u; mantenido, slow, ch’aki, humedad, hukkunapas.</t>
+  </si>
+  <si>
+    <t> Ichaqa, llapanmanta aswantaqa, intiq ruphayninta qatipakuspa, hanaq pachapi kaq cuerpokunaq ima clase ruphayniyoqmi kanchis, chaykunan imaymana grado de intensidad nisqapi pasanku, hinallataq, nisunman hina, órbitas nisqaman, ñawpaqman puriykunaman, retrasokunamanpas sujeto, chaykunan admirable efectokunata ruwan .</t>
+  </si>
+  <si>
+    <t> Chaymantapas, wanumanta, kawsaqkunapa wiksanmanta, ukhunmanta, yawarninkumanta, kurkumanta, henomanta, chiri quramanta, cal vivamanta, hukkunamantapas ruphayniyuqmi kanchik. Hinallataqmi kapuwanchik instrumentukuna, chaykunam ruphaytaqa paqarichimunku kuyuywan, chaynallataqmi sitiokuna destinasqa sinchi insolacionman.</t>
+  </si>
+  <si>
+    <t> Astawanpis, ayakunata tukuyninpi t’aqanapaq lugares, chanta jallp’a ukupi, naturalmente utaq artificialmente ruphayta ruwaq lugares.</t>
+  </si>
+  <si>
+    <t> Kay imaymana ruphaykunatan utilizayku ruwayta munasqayku operacionpaq.</t>
+  </si>
+  <si>
+    <t>Laboratoriokunayoqmi kayku, chaypin tukuy imaymana pruebakunata ruwayku k’anchaymanta, radiaciónmanta, colorkunamantawan; Mana llimp'iyuq, sut'i kaq imakunamanta qallarispaqa llapa imaymana llimp'ikunatam rikuchiyta atisunman, manam espectromantachu (imaynan gemakunapi, prismakunapipas rikurin hina) aswanpas sapakamatam aswantaqa".</t>
+  </si>
+  <si>
+    <t> Dispensariokuna utaq hampi rantiqkunayuqmi kayku, chaypim qawakun Europapi qamkunamanta aswan achka imaymana yurakunayuq, kawsaqkunapas (imaraykum yachanchik ima kapuqnikichikta); hampi qurakuna, hampikuna, hampikunapaq imakuna ruwanapaqpas ancha imaymana tarikun.</t>
+  </si>
+  <si>
+    <t> Chaykunataqa hukniray pachakunamanta, unay fermentacionkunamanta ima kapuwanchik.</t>
+  </si>
+  <si>
+    <t> Preparacionninkumantaqa, manam chayllachu kachkanchik.</t>
+  </si>
+  <si>
+    <t> aparatokuna tukuy laya delicado destilaciones y separaciones ruwanapaq, ichaqa formas exactas de composición nisqakunatapas, chaywanmi llapa productokunata churanku elementos naturales nisqa hina rikhurinankupaq.</t>
+  </si>
+  <si>
+    <t>Hinallataqmi artes mecánicas nisqakunatapas kapuwanchis, chaykunatan faltankichis; paykunaq ruwasqanku materialkuna, ahinataq papel, lino, seda, tejido, sumaq k’anchariq delicado qaramanta ruwasqa, allin tintekuna, askha imakuna ima; Hinallataqmi kan tiendakuna, kunan pacha hinallataq lujo".</t>
+  </si>
+  <si>
+    <t> Hinallataqmi kan sitiokuna mikuchinapaq hinaspa generanapaq especies de gusanos y moscas nisqakunata, chaykunam kanku utilidad especial nisqa, ahinataq seda kuruykikuna hinaspa abejakuna.</t>
+  </si>
+  <si>
+    <t> Manam unaytachu waqaychasaq cerveza ruwanaykumanta, panaderíaykumanta, cocinaykumanta ima willakuywan, chaypim imaymana upyanakuna, tantakuna, aychakuna, mana ancha rikusqa hinaspa especial efectos nisqakuna ruwakun".</t>
+  </si>
+  <si>
+    <t> Hinallataqmi kan parquekuna, cercokuna ima tukuy rikchaq uywakunayuq, chaykunataqa manam qawachinapaqllachu servichikunchik pisilla kasqanrayku aswanqa disecciones nisqapaqpas, experimentokunapaqpas; chay hinapin rikch’anachiywan tarisunman runaq cuerponpa askha onqoyninkunata.</t>
+  </si>
+  <si>
+    <t>Achka mana riqsisqa efectokunatam tarirqanchik, ahinataq chaykunapi kawsayqa hinallam, ancha allinpaq hapisqa partekuna chinkaptinpas utaq kuchusqaña kaptinpas; wakin wañusqa hina kaqkunata kawsarichinankupaq, chayman rikchakuq casokunatapas.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi tukuy laya venenokunata, hampikunatapas chaykunapi pruebarqayku, hampipaq, operacionpaqpas allin kananpaq.</t>
+  </si>
+  <si>
+    <t> Artificialwanmi ruwanchis especienkumanta aswan hatun otaq aswan hatun, aswanpas aswan huch’uymanmi tukuchispa wiñayninta sayachinchis; Aswan puquyniyuqta, ruruchiqta ima ruwanchik, especie nisqamantaqa, aswanqa, estéril, mana abono ruwayta atiq.</t>
+  </si>
+  <si>
+    <t> Achka ruwaykunapim colorninta, hatun kayninta hinaspa ruwaynintapas cambianchik.</t>
+  </si>
+  <si>
+    <t> Imaymana géneros nisqapa cruzamientos nisqakuna ruwanapaqmi tarirunchik, chaymi achka musuq especies nisqakuna rikurimun, chaykunaqa manam estérilchu kanku imaynam yuyay general nisqapa nisqanman hina.</t>
+  </si>
+  <si>
+    <t>Ruwanchismi huk yupay especie mach’aqwaykunata, kurukunata, ch’uspikunata, challwakunata, ismuq materiamanta, rikch’asqankumantataqmi wakinqa, yaqapaschá aswan hunt’asqa runaman tukupunku, uywakuna hina otaq pisqukuna hina, kikinkumanta qhari-warmi kayninkuwan miraspa.</t>
+  </si>
+  <si>
+    <t> Tukuy kaykunataqa manan yanqallachu ruwanchis, ñawpaqmantaraqmi yachanchis mayqen kawsaqkunachus paqarimunanta huk decidisqa chimpapuraymanta, materiamantawan.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi challwakunawan experimento ruwanapaq estanquekuna kan, ñawpaqpi nisqanchis hina, pisqukunamanta, huk uywakunamantapas".</t>
+  </si>
+  <si>
+    <t> Hinallataqmi askha huertakunaq huertankunapas kan, chaypin sumaq kayninkumanta aswantaqa imaymana terrenokunata, hallp’akunatapas qhawarinchis, imaymana sach’akunapaq, qurakunapaqpas allinmi; wakinqa ancha hatunmi, sachakunata, fresakunata, morakunata, hukkunatapas tarpuspa, chaykunawanmi imaymana upyanakunata ruwanchik, vinomanta hawa.</t>
+  </si>
+  <si>
+    <t>Tukuy laya injertokunata ruranchik, chaynallataqmi sallqa sachakunata ruru sachaman tikranapaq experimentokunatapas; tukuy kaykunaqa achka efectos nisqakuna ruwaymanmi apawanchik.</t>
+  </si>
+  <si>
+    <t> Chay kikin huertakunapi, huertakunapipas, artificial nisqawanmi aypanchis, sach’akuna t’ikakunapas manaraq tupaq pachankuta otaq qhepamanpas t’ikasqankuta, hinallataq aswan usqhaylla rurunku, normal evolución nisqaman hina.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi aypanchis aswan hatun sayayniyoq kasqankuta, natural nisqamantaqa, hinallataq rurunku aswan hatun, aswan misk’i, hinallataq hukniray sabor, q’apay, color, forma ima, naturalezankuman hina kapuqninkumantaqa.</t>
+  </si>
+  <si>
+    <t> Achkatam hampi hina servichikunmanku.</t>
+  </si>
+  <si>
+    <t> Yachanchikmi imaymana yurakunata tarinapaq hinaspa wiñayninta wiñachinapaq allpakuna chaqrusqawan, mana muhuyuq, chaynallataq musuq yurakunata kunan yurakunamanta hukniraq ruruchinapaq, chaynallataq huk sacha utaq yura hukman tikrakunanpaq."</t>
+  </si>
+  <si>
+    <t>Hinallataqmi wakin cámaras nisqakunatapas kapuwanchis, chaykunatan sutichanchis cámaras de salud nispa, chaypin wayrata wakichinchis, imaymana onqoykuna hampinapaq allin kananpaq, allin kananpaqpas.</t>
+  </si>
+  <si>
+    <t> Hinallataqmi hatun, sumaqllaña bañokunatapas kapuwanchik, imaymana chaqrusqakunawan, unquykunata hampinapaq, runapa kurkuntapas llumpay ch’akiymanta kutichipunapaq; wakintaq nerviokuna, ancha chaniyoq partekunaq, cuerpoq sustancianpa, jugonpa kallpanta yapanankupaq".</t>
+  </si>
+  <si>
+    <t> Hinallataqmi kan huk yupay artificial pukyukunata, fuentekunatapas, pukyukunata, baños naturales nisqakunata qatipakuspa, chaykunapim vitriol, azufre, acero, plomo, kachi, huk mineralkunapas solucionpi kachkan; hinaspapas, huch’uy pukyukunayoqmi kanchis, chaypin askha imaymanakunata chaqrunchis, chaykunawanmi unukunaqa aswan usqhaylla allin kayta tarin, barcokunapi otaq estanquekunapimantaqa.</t>
+  </si>
+  <si>
+    <t> Chaykuna ukhupin kan huk unu, chaytan sutichanchis Paraiso Yaku nispa, kamachikuq hampi.</t>
+  </si>
+  <si>
+    <t> qhali kayta, unay kawsayta ima.</t>
+  </si>
+  <si>
+    <t>Hinallataqmi hatun, hatun wasikunayoq kanchis, chaypin qatipanchis, rikuchinchistaq wayra pachapi imakunachus pasasqanmanta, rit’i, granizo, para, mana unu kaq cuerpokunaq artificial urmaynin, t’oqyay, llimp’i ima; chay hinallataqmi wayrapi cuerpokunata paqarichimunchis, sapokuna, ch’uspikuna, imaymanakuna hinapas".</t>
   </si>
 </sst>
 </file>
@@ -1128,12 +1287,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1148,11 +1367,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD38B72-BDAE-4C57-A5B2-FA317C550A33}">
-  <dimension ref="A1:A359"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,7 +2018,7 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2010,1264 +2242,1548 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>126</v>
+    <row r="122" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
+      <c r="A129" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
+      <c r="A136" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
+      <c r="A142" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
+      <c r="A146" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
+      <c r="A156" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
+      <c r="A164" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
+      <c r="A248" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>284</v>
+      <c r="A285" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>285</v>
+      <c r="A286" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D297" t="b">
+        <f>A297=A294</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>303</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>304</v>
+      <c r="A305" s="10" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>305</v>
+      <c r="A306" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>306</v>
+      <c r="A307" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>307</v>
+      <c r="A308" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>308</v>
+      <c r="A309" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>309</v>
+      <c r="A310" s="14" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>310</v>
+      <c r="A311" s="14" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>311</v>
+      <c r="A312" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>312</v>
+      <c r="A313" s="14" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>313</v>
+      <c r="A314" s="13" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>314</v>
+      <c r="A315" s="13" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>315</v>
+      <c r="A316" s="13" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>316</v>
+      <c r="A317" s="13" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>317</v>
+      <c r="A318" s="13" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>318</v>
+      <c r="A319" s="13" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>319</v>
+      <c r="A320" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>320</v>
+      <c r="A321" s="13" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>321</v>
+      <c r="A322" s="13" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>322</v>
+      <c r="A323" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>323</v>
+      <c r="A324" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>325</v>
+      <c r="A326" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>332</v>
+      <c r="A333" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>333</v>
+      <c r="A334" s="11" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>334</v>
+      <c r="A335" s="11" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>335</v>
+      <c r="A336" s="11" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>336</v>
+      <c r="A337" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>337</v>
+      <c r="A338" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>338</v>
+      <c r="A339" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>339</v>
+      <c r="A340" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>340</v>
+      <c r="A341" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>341</v>
+      <c r="A342" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>342</v>
+      <c r="A343" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>343</v>
+      <c r="A344" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>344</v>
+      <c r="A345" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>346</v>
+      <c r="A347" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>351</v>
+      <c r="A352" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>353</v>
+      <c r="A354" s="10" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>354</v>
+      <c r="A355" s="10" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>355</v>
+      <c r="A356" s="10" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>356</v>
+      <c r="A357" s="10" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="9" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
